--- a/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,59 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -721,86 +725,95 @@
         <v>32800</v>
       </c>
       <c r="E8" s="3">
+        <v>32800</v>
+      </c>
+      <c r="F8" s="3">
         <v>30800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>28300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>26500</v>
-      </c>
-      <c r="H8" s="3">
-        <v>24800</v>
       </c>
       <c r="I8" s="3">
         <v>24800</v>
       </c>
       <c r="J8" s="3">
+        <v>24800</v>
+      </c>
+      <c r="K8" s="3">
         <v>23900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="E9" s="3">
         <v>11300</v>
       </c>
       <c r="F9" s="3">
+        <v>11300</v>
+      </c>
+      <c r="G9" s="3">
         <v>10900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E10" s="3">
         <v>21500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>19500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>17400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>16400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>15600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>15900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>15100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E12" s="3">
         <v>4800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,23 +887,26 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
@@ -899,28 +919,31 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E15" s="3">
         <v>3500</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3400</v>
       </c>
       <c r="F15" s="3">
         <v>3400</v>
       </c>
       <c r="G15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H15" s="3">
         <v>3200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2700</v>
       </c>
       <c r="J15" s="3">
         <v>2700</v>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E17" s="3">
         <v>35100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>35000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>33600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>29800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>27800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>25800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,66 +1042,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,42 +1136,48 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>-2000</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
@@ -1140,7 +1186,7 @@
         <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6700</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="3">
         <v>-3200</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-70800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14600</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="3">
         <v>-5700</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>900</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-70800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14600</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="3">
         <v>-5700</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-70800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14600</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="3">
         <v>-5700</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,23 +1619,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>90300</v>
+      </c>
+      <c r="E41" s="3">
         <v>91400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5900</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>10</v>
       </c>
@@ -1562,8 +1649,11 @@
       <c r="K41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,23 +1681,26 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E43" s="3">
         <v>30400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>28100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>28800</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>10</v>
       </c>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1658,14 +1757,14 @@
         <v>6900</v>
       </c>
       <c r="E45" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F45" s="3">
         <v>7700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4600</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>10</v>
       </c>
@@ -1678,23 +1777,26 @@
       <c r="K45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>131500</v>
+      </c>
+      <c r="E46" s="3">
         <v>128700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>135800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>39300</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>10</v>
       </c>
@@ -1707,8 +1809,11 @@
       <c r="K46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,23 +1841,26 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E48" s="3">
         <v>14400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13800</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>10</v>
       </c>
@@ -1765,23 +1873,26 @@
       <c r="K48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E49" s="3">
         <v>10000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9700</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>10</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,23 +1969,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="E52" s="3">
         <v>2800</v>
       </c>
       <c r="F52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G52" s="3">
         <v>5400</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>10</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,23 +2033,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>158800</v>
+      </c>
+      <c r="E54" s="3">
         <v>155900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>163000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>68100</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>10</v>
       </c>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,23 +2095,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7500</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>10</v>
       </c>
@@ -1994,23 +2125,26 @@
       <c r="K57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E58" s="3">
         <v>2400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>10</v>
       </c>
@@ -2023,23 +2157,26 @@
       <c r="K58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E59" s="3">
         <v>23700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>25300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>26500</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>10</v>
       </c>
@@ -2052,23 +2189,26 @@
       <c r="K59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E60" s="3">
         <v>32100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>38600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>35900</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>10</v>
       </c>
@@ -2081,23 +2221,26 @@
       <c r="K60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E61" s="3">
         <v>21300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>36000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2110,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2122,11 +2268,11 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>5900</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>10</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,23 +2381,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E66" s="3">
         <v>53400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>60100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>77800</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>10</v>
       </c>
@@ -2255,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2338,11 +2506,11 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>214400</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,23 +2555,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-284500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-280800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-278400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-224100</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>10</v>
       </c>
@@ -2413,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,23 +2683,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>101900</v>
+      </c>
+      <c r="E76" s="3">
         <v>102500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>102900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-224100</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>10</v>
       </c>
@@ -2529,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-70800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14600</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K81" s="3">
         <v>-5700</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E83" s="3">
         <v>3500</v>
-      </c>
-      <c r="E83" s="3">
-        <v>3400</v>
       </c>
       <c r="F83" s="3">
         <v>3400</v>
       </c>
       <c r="G83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H83" s="3">
         <v>3200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>2700</v>
       </c>
       <c r="J83" s="3">
         <v>2700</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1400</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-1300</v>
       </c>
       <c r="G91" s="3">
         <v>-1300</v>
       </c>
       <c r="H91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1900</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>96500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>94100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3500</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="L102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>32800</v>
+        <v>33400</v>
       </c>
       <c r="E8" s="3">
         <v>32800</v>
       </c>
       <c r="F8" s="3">
+        <v>32800</v>
+      </c>
+      <c r="G8" s="3">
         <v>30800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>28300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>26500</v>
-      </c>
-      <c r="I8" s="3">
-        <v>24800</v>
       </c>
       <c r="J8" s="3">
         <v>24800</v>
       </c>
       <c r="K8" s="3">
+        <v>24800</v>
+      </c>
+      <c r="L8" s="3">
         <v>23900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E9" s="3">
         <v>11200</v>
-      </c>
-      <c r="E9" s="3">
-        <v>11300</v>
       </c>
       <c r="F9" s="3">
         <v>11300</v>
       </c>
       <c r="G9" s="3">
+        <v>11300</v>
+      </c>
+      <c r="H9" s="3">
         <v>10900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E10" s="3">
         <v>21600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>21500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>19500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>17400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>16400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>15600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>15900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>15100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,40 +838,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E12" s="3">
         <v>4900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,26 +906,29 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
@@ -922,31 +941,34 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E15" s="3">
         <v>3700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3400</v>
       </c>
       <c r="G15" s="3">
         <v>3400</v>
       </c>
       <c r="H15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I15" s="3">
         <v>3200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2700</v>
       </c>
       <c r="K15" s="3">
         <v>2700</v>
@@ -954,8 +976,11 @@
       <c r="L15" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +990,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E17" s="3">
         <v>37500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>35100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>35000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>33600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>29800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>27800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>26000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,72 +1075,79 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,48 +1178,54 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2000</v>
-      </c>
-      <c r="E24" s="3">
-        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
@@ -1189,7 +1234,7 @@
         <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1203,8 +1248,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6700</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="3">
         <v>-3200</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-70800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14600</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="3">
         <v>-5700</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1493,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-70800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14600</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="3">
         <v>-5700</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-70800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14600</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="3">
         <v>-5700</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,8 +1705,9 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1629,17 +1715,17 @@
         <v>90300</v>
       </c>
       <c r="E41" s="3">
+        <v>90300</v>
+      </c>
+      <c r="F41" s="3">
         <v>91400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5900</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>10</v>
       </c>
@@ -1652,8 +1738,11 @@
       <c r="L41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,26 +1773,29 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E43" s="3">
         <v>34300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>30400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>28100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>28800</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>10</v>
       </c>
@@ -1716,8 +1808,11 @@
       <c r="L43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,26 +1843,29 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="E45" s="3">
         <v>6900</v>
       </c>
       <c r="F45" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G45" s="3">
         <v>7700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4600</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>10</v>
       </c>
@@ -1780,26 +1878,29 @@
       <c r="L45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>130400</v>
+      </c>
+      <c r="E46" s="3">
         <v>131500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>128700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>135800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>39300</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>10</v>
       </c>
@@ -1812,8 +1913,11 @@
       <c r="L46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,26 +1948,29 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E48" s="3">
         <v>14500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13800</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>10</v>
       </c>
@@ -1876,26 +1983,29 @@
       <c r="L48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E49" s="3">
         <v>10200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9700</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>10</v>
       </c>
@@ -1908,8 +2018,11 @@
       <c r="L49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,26 +2088,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E52" s="3">
         <v>2500</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2800</v>
       </c>
       <c r="F52" s="3">
         <v>2800</v>
       </c>
       <c r="G52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H52" s="3">
         <v>5400</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2004,8 +2123,11 @@
       <c r="L52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,26 +2158,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>161300</v>
+      </c>
+      <c r="E54" s="3">
         <v>158800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>155900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>163000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>68100</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2068,8 +2193,11 @@
       <c r="L54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,26 +2225,27 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E57" s="3">
         <v>6000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7500</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>10</v>
       </c>
@@ -2128,26 +2258,29 @@
       <c r="L57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E58" s="3">
         <v>2300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>10</v>
       </c>
@@ -2160,26 +2293,29 @@
       <c r="L58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E59" s="3">
         <v>27000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>23700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>25300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>26500</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>10</v>
       </c>
@@ -2192,26 +2328,29 @@
       <c r="L59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E60" s="3">
         <v>35400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>32100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>38600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>35900</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>10</v>
       </c>
@@ -2224,26 +2363,29 @@
       <c r="L60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E61" s="3">
         <v>21500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>36000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2256,13 +2398,16 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -2271,11 +2416,11 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>5900</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>10</v>
       </c>
@@ -2288,8 +2433,11 @@
       <c r="L62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,26 +2538,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E66" s="3">
         <v>56900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>53400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>60100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>77800</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>10</v>
       </c>
@@ -2416,8 +2573,11 @@
       <c r="L66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2509,11 +2676,11 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>214400</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2526,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,26 +2728,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-290600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-284500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-280800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-278400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-224100</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>10</v>
       </c>
@@ -2590,8 +2763,11 @@
       <c r="L72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,26 +2868,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>99900</v>
+      </c>
+      <c r="E76" s="3">
         <v>101900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>102500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>102900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-224100</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>10</v>
       </c>
@@ -2718,8 +2903,11 @@
       <c r="L76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-70800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14600</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81" s="3">
         <v>-5700</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3030,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E83" s="3">
         <v>3700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>3400</v>
       </c>
       <c r="G83" s="3">
         <v>3400</v>
       </c>
       <c r="H83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I83" s="3">
         <v>3200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>2700</v>
       </c>
       <c r="K83" s="3">
         <v>2700</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3238,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E89" s="3">
         <v>1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3290,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-1300</v>
       </c>
       <c r="H91" s="3">
         <v>-1300</v>
       </c>
       <c r="I91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3393,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1900</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,40 +3583,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>96500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-700</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +3653,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>94100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3500</v>
       </c>
-      <c r="L102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>PHR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,180 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E8" s="3">
         <v>33400</v>
-      </c>
-      <c r="E8" s="3">
-        <v>32800</v>
       </c>
       <c r="F8" s="3">
         <v>32800</v>
       </c>
       <c r="G8" s="3">
+        <v>32800</v>
+      </c>
+      <c r="H8" s="3">
         <v>30800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>28300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>26500</v>
-      </c>
-      <c r="J8" s="3">
-        <v>24800</v>
       </c>
       <c r="K8" s="3">
         <v>24800</v>
       </c>
       <c r="L8" s="3">
+        <v>24800</v>
+      </c>
+      <c r="M8" s="3">
         <v>23900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E9" s="3">
         <v>11600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>11300</v>
       </c>
       <c r="G9" s="3">
         <v>11300</v>
       </c>
       <c r="H9" s="3">
+        <v>11300</v>
+      </c>
+      <c r="I9" s="3">
         <v>10900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E10" s="3">
         <v>21800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>21600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>21500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>19500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>17400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>16400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>15600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>15900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>15100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,43 +852,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E12" s="3">
         <v>5000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,29 +926,32 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
         <v>1100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
@@ -944,34 +964,37 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E15" s="3">
         <v>3600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3400</v>
       </c>
       <c r="H15" s="3">
         <v>3400</v>
       </c>
       <c r="I15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J15" s="3">
         <v>3200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>2700</v>
       </c>
       <c r="L15" s="3">
         <v>2700</v>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E17" s="3">
         <v>38400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>37500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>35100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>35000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>33600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>29800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>27800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,101 +1109,108 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1181,43 +1221,49 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1225,10 +1271,10 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-2000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
@@ -1237,7 +1283,7 @@
         <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1251,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6700</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" s="3">
         <v>-3200</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-70800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-14600</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="3">
         <v>-5700</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,78 +1563,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-70800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-14600</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" s="3">
         <v>-5700</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-70800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-14600</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35" s="3">
         <v>-5700</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,29 +1792,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>90300</v>
+        <v>84200</v>
       </c>
       <c r="E41" s="3">
         <v>90300</v>
       </c>
       <c r="F41" s="3">
+        <v>90300</v>
+      </c>
+      <c r="G41" s="3">
         <v>91400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5900</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>10</v>
       </c>
@@ -1741,8 +1828,11 @@
       <c r="M41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,29 +1866,32 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E43" s="3">
         <v>32900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>34300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>30400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>28100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>28800</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>10</v>
       </c>
@@ -1811,8 +1904,11 @@
       <c r="M43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,29 +1942,32 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E45" s="3">
         <v>7200</v>
-      </c>
-      <c r="E45" s="3">
-        <v>6900</v>
       </c>
       <c r="F45" s="3">
         <v>6900</v>
       </c>
       <c r="G45" s="3">
+        <v>6900</v>
+      </c>
+      <c r="H45" s="3">
         <v>7700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4600</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>10</v>
       </c>
@@ -1881,29 +1980,32 @@
       <c r="M45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E46" s="3">
         <v>130400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>131500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>128700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>135800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>39300</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>10</v>
       </c>
@@ -1916,8 +2018,11 @@
       <c r="M46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,29 +2056,32 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E48" s="3">
         <v>17800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13800</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>10</v>
       </c>
@@ -1986,29 +2094,32 @@
       <c r="M48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E49" s="3">
         <v>10600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9700</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>10</v>
       </c>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,29 +2208,32 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2500</v>
-      </c>
-      <c r="F52" s="3">
-        <v>2800</v>
       </c>
       <c r="G52" s="3">
         <v>2800</v>
       </c>
       <c r="H52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I52" s="3">
         <v>5400</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2126,8 +2246,11 @@
       <c r="M52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,29 +2284,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>160300</v>
+      </c>
+      <c r="E54" s="3">
         <v>161300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>158800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>155900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>163000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>68100</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2196,8 +2322,11 @@
       <c r="M54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,29 +2356,30 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E57" s="3">
         <v>7600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7500</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>10</v>
       </c>
@@ -2261,29 +2392,32 @@
       <c r="M57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E58" s="3">
         <v>2400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>10</v>
       </c>
@@ -2296,29 +2430,32 @@
       <c r="M58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E59" s="3">
         <v>28100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>27000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>23700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>25300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>26500</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>10</v>
       </c>
@@ -2331,8 +2468,11 @@
       <c r="M59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2340,20 +2480,20 @@
         <v>38100</v>
       </c>
       <c r="E60" s="3">
+        <v>38100</v>
+      </c>
+      <c r="F60" s="3">
         <v>35400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>32100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>38600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>35900</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>10</v>
       </c>
@@ -2366,29 +2506,32 @@
       <c r="M60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E61" s="3">
         <v>21700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>21500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>36000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2401,17 +2544,20 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1600</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
@@ -2419,11 +2565,11 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>5900</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>10</v>
       </c>
@@ -2436,8 +2582,11 @@
       <c r="M62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,29 +2696,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E66" s="3">
         <v>61400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>56900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>53400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>60100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>77800</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>10</v>
       </c>
@@ -2576,8 +2734,11 @@
       <c r="M66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2679,11 +2847,11 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>214400</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,29 +2902,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-297000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-290600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-284500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-280800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-278400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-224100</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>10</v>
       </c>
@@ -2766,8 +2940,11 @@
       <c r="M72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,29 +3054,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>97700</v>
+      </c>
+      <c r="E76" s="3">
         <v>99900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>101900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>102500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>102900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-224100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>10</v>
       </c>
@@ -2906,8 +3092,11 @@
       <c r="M76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-70800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-14600</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M81" s="3">
         <v>-5700</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,43 +3229,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>3400</v>
       </c>
       <c r="H83" s="3">
         <v>3400</v>
       </c>
       <c r="I83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J83" s="3">
         <v>3200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>2700</v>
       </c>
       <c r="L83" s="3">
         <v>2700</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E89" s="3">
         <v>1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,43 +3511,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1300</v>
       </c>
       <c r="I91" s="3">
         <v>-1300</v>
       </c>
       <c r="J91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1900</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,43 +3829,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>96500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-700</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,39 +3905,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>94100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3500</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E8" s="3">
         <v>35000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>33400</v>
-      </c>
-      <c r="F8" s="3">
-        <v>32800</v>
       </c>
       <c r="G8" s="3">
         <v>32800</v>
       </c>
       <c r="H8" s="3">
+        <v>32800</v>
+      </c>
+      <c r="I8" s="3">
         <v>30800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>28300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>26500</v>
-      </c>
-      <c r="K8" s="3">
-        <v>24800</v>
       </c>
       <c r="L8" s="3">
         <v>24800</v>
       </c>
       <c r="M8" s="3">
+        <v>24800</v>
+      </c>
+      <c r="N8" s="3">
         <v>23900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E9" s="3">
         <v>12000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>11300</v>
       </c>
       <c r="H9" s="3">
         <v>11300</v>
       </c>
       <c r="I9" s="3">
+        <v>11300</v>
+      </c>
+      <c r="J9" s="3">
         <v>10900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E10" s="3">
         <v>23000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>21800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>21600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>21500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>19500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>17400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>16400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>15600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>15900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>15100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E12" s="3">
         <v>5500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -929,32 +946,35 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
         <v>1100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
@@ -967,8 +987,11 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -976,28 +999,28 @@
         <v>4000</v>
       </c>
       <c r="E15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F15" s="3">
         <v>3600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3500</v>
-      </c>
-      <c r="H15" s="3">
-        <v>3400</v>
       </c>
       <c r="I15" s="3">
         <v>3400</v>
       </c>
       <c r="J15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K15" s="3">
         <v>3200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>2700</v>
       </c>
       <c r="M15" s="3">
         <v>2700</v>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E17" s="3">
         <v>41300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>38400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>37500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>35100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>35000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>33600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>29800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>27800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>25800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,95 +1143,102 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-1000</v>
       </c>
       <c r="F20" s="3">
         <v>-900</v>
       </c>
       <c r="G20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1800</v>
       </c>
-      <c r="E21" s="3">
-        <v>-2400</v>
-      </c>
       <c r="F21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>10</v>
+      <c r="F22" s="3">
+        <v>100</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>10</v>
@@ -1212,8 +1252,8 @@
       <c r="J22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1224,60 +1264,66 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
       <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
@@ -1286,7 +1332,7 @@
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6700</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N26" s="3">
         <v>-3200</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-70800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14600</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N27" s="3">
         <v>-5700</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1000</v>
       </c>
       <c r="F32" s="3">
         <v>900</v>
       </c>
       <c r="G32" s="3">
+        <v>900</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-70800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14600</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33" s="3">
         <v>-5700</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-70800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14600</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N35" s="3">
         <v>-5700</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,32 +1879,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>254100</v>
+      </c>
+      <c r="E41" s="3">
         <v>84200</v>
-      </c>
-      <c r="E41" s="3">
-        <v>90300</v>
       </c>
       <c r="F41" s="3">
         <v>90300</v>
       </c>
       <c r="G41" s="3">
+        <v>90300</v>
+      </c>
+      <c r="H41" s="3">
         <v>91400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5900</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>10</v>
       </c>
@@ -1831,8 +1918,11 @@
       <c r="N41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,32 +1959,35 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E43" s="3">
         <v>33700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>32900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>34300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>30400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>28100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>28800</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>10</v>
       </c>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,32 +2041,35 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E45" s="3">
         <v>10100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>6900</v>
       </c>
       <c r="G45" s="3">
         <v>6900</v>
       </c>
       <c r="H45" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I45" s="3">
         <v>7700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4600</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>10</v>
       </c>
@@ -1983,32 +2082,35 @@
       <c r="N45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>302500</v>
+      </c>
+      <c r="E46" s="3">
         <v>128000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>130400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>131500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>128700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>135800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>39300</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2021,8 +2123,11 @@
       <c r="N46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,32 +2164,35 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E48" s="3">
         <v>19500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>17800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>10</v>
       </c>
@@ -2097,32 +2205,35 @@
       <c r="N48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E49" s="3">
         <v>10800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9700</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>10</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,32 +2328,35 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E52" s="3">
         <v>2000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2800</v>
       </c>
       <c r="H52" s="3">
         <v>2800</v>
       </c>
       <c r="I52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J52" s="3">
         <v>5400</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,32 +2410,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>338100</v>
+      </c>
+      <c r="E54" s="3">
         <v>160300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>161300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>158800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>155900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>163000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>68100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,32 +2487,33 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E57" s="3">
         <v>5100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>10</v>
       </c>
@@ -2395,32 +2526,35 @@
       <c r="N57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E58" s="3">
         <v>4900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>10</v>
       </c>
@@ -2433,32 +2567,35 @@
       <c r="N58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E59" s="3">
         <v>28000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>27000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>23700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>25300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>26500</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>10</v>
       </c>
@@ -2471,32 +2608,35 @@
       <c r="N59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>38100</v>
+        <v>41800</v>
       </c>
       <c r="E60" s="3">
         <v>38100</v>
       </c>
       <c r="F60" s="3">
+        <v>38100</v>
+      </c>
+      <c r="G60" s="3">
         <v>35400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>32100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>38600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>35900</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>10</v>
       </c>
@@ -2509,32 +2649,35 @@
       <c r="N60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E61" s="3">
         <v>23100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>21300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>21500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>36000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2547,20 +2690,23 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1600</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
@@ -2568,11 +2714,11 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>5900</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>10</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,32 +2854,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>68400</v>
+      </c>
+      <c r="E66" s="3">
         <v>62600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>61400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>56900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>53400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>60100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>77800</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>10</v>
       </c>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2850,11 +3018,11 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>214400</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,32 +3076,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-303700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-297000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-290600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-284500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-280800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-278400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-224100</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>10</v>
       </c>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,32 +3240,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>269700</v>
+      </c>
+      <c r="E76" s="3">
         <v>97700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>99900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>101900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>102500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>102900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-224100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>10</v>
       </c>
@@ -3095,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-70800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14600</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N81" s="3">
         <v>-5700</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3239,37 +3438,40 @@
         <v>4000</v>
       </c>
       <c r="E83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F83" s="3">
         <v>3600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>3400</v>
       </c>
       <c r="I83" s="3">
         <v>3400</v>
       </c>
       <c r="J83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K83" s="3">
         <v>3200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>2700</v>
       </c>
       <c r="M83" s="3">
         <v>2700</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3732,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1300</v>
       </c>
       <c r="J91" s="3">
         <v>-1300</v>
       </c>
       <c r="K91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1900</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>174300</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>96500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-700</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>169900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>94100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3500</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>PHR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E8" s="3">
         <v>38500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>35000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>33400</v>
-      </c>
-      <c r="G8" s="3">
-        <v>32800</v>
       </c>
       <c r="H8" s="3">
         <v>32800</v>
       </c>
       <c r="I8" s="3">
+        <v>32800</v>
+      </c>
+      <c r="J8" s="3">
         <v>30800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>28300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26500</v>
-      </c>
-      <c r="L8" s="3">
-        <v>24800</v>
       </c>
       <c r="M8" s="3">
         <v>24800</v>
       </c>
       <c r="N8" s="3">
+        <v>24800</v>
+      </c>
+      <c r="O8" s="3">
         <v>23900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E9" s="3">
         <v>14000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11200</v>
-      </c>
-      <c r="H9" s="3">
-        <v>11300</v>
       </c>
       <c r="I9" s="3">
         <v>11300</v>
       </c>
       <c r="J9" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K9" s="3">
         <v>10900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E10" s="3">
         <v>24500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>23000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>21800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>21600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>21500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>19500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>17400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>16400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>15600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>15900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>15100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E12" s="3">
         <v>5700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,24 +980,24 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
@@ -990,40 +1010,43 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="E15" s="3">
         <v>4000</v>
       </c>
       <c r="F15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G15" s="3">
         <v>3600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3500</v>
-      </c>
-      <c r="I15" s="3">
-        <v>3400</v>
       </c>
       <c r="J15" s="3">
         <v>3400</v>
       </c>
       <c r="K15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L15" s="3">
         <v>3200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>2700</v>
       </c>
       <c r="N15" s="3">
         <v>2700</v>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E17" s="3">
         <v>44600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>41300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>38400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>37500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>35100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>35000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>33600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>29800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>27800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>25800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,105 +1177,112 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-900</v>
       </c>
       <c r="G20" s="3">
         <v>-900</v>
       </c>
       <c r="H20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>10</v>
       </c>
@@ -1255,8 +1295,8 @@
       <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1267,66 +1307,72 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
       <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
         <v>-2000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
@@ -1335,7 +1381,7 @@
         <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6700</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O26" s="3">
         <v>-3200</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-70800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14600</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O27" s="3">
         <v>-5700</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>900</v>
       </c>
       <c r="G32" s="3">
         <v>900</v>
       </c>
       <c r="H32" s="3">
+        <v>900</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-70800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14600</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O33" s="3">
         <v>-5700</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-70800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14600</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O35" s="3">
         <v>-5700</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,35 +1966,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>218800</v>
+      </c>
+      <c r="E41" s="3">
         <v>254100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>84200</v>
-      </c>
-      <c r="F41" s="3">
-        <v>90300</v>
       </c>
       <c r="G41" s="3">
         <v>90300</v>
       </c>
       <c r="H41" s="3">
+        <v>90300</v>
+      </c>
+      <c r="I41" s="3">
         <v>91400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>10</v>
       </c>
@@ -1921,8 +2008,11 @@
       <c r="O41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,35 +2052,38 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E43" s="3">
         <v>39900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>33700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>32900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>34300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>30400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>28100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>28800</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,35 +2140,38 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E45" s="3">
         <v>8500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>6900</v>
       </c>
       <c r="H45" s="3">
         <v>6900</v>
       </c>
       <c r="I45" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J45" s="3">
         <v>7700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4600</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>10</v>
       </c>
@@ -2085,35 +2184,38 @@
       <c r="O45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>272300</v>
+      </c>
+      <c r="E46" s="3">
         <v>302500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>128000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>130400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>131500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>128700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>135800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>39300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2126,8 +2228,11 @@
       <c r="O46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,35 +2272,38 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E48" s="3">
         <v>22400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>17800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>10</v>
       </c>
@@ -2208,35 +2316,38 @@
       <c r="O48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E49" s="3">
         <v>11300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9700</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>10</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,35 +2448,38 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E52" s="3">
         <v>1900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2500</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2800</v>
       </c>
       <c r="I52" s="3">
         <v>2800</v>
       </c>
       <c r="J52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K52" s="3">
         <v>5400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,35 +2536,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>326700</v>
+      </c>
+      <c r="E54" s="3">
         <v>338100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>160300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>161300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>158800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>155900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>163000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>68100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,35 +2618,36 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E57" s="3">
         <v>4200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7500</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>10</v>
       </c>
@@ -2529,35 +2660,38 @@
       <c r="O57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E58" s="3">
         <v>4700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>10</v>
       </c>
@@ -2570,35 +2704,38 @@
       <c r="O58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E59" s="3">
         <v>32800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>28100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>27000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>23700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>25300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>26500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>10</v>
       </c>
@@ -2611,35 +2748,38 @@
       <c r="O59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E60" s="3">
         <v>41800</v>
-      </c>
-      <c r="E60" s="3">
-        <v>38100</v>
       </c>
       <c r="F60" s="3">
         <v>38100</v>
       </c>
       <c r="G60" s="3">
+        <v>38100</v>
+      </c>
+      <c r="H60" s="3">
         <v>35400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>32100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>38600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>35900</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>10</v>
       </c>
@@ -2652,35 +2792,38 @@
       <c r="O60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E61" s="3">
         <v>24400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>23100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>21500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>21300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>21500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>36000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2693,23 +2836,26 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
         <v>2200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1600</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
@@ -2717,11 +2863,11 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>5900</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>10</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,35 +3012,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E66" s="3">
         <v>68400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>62600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>61400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>56900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>53400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>60100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>77800</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>10</v>
       </c>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3021,11 +3189,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>214400</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,35 +3250,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-311800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-303700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-297000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-290600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-284500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-280800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-278400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-224100</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>10</v>
       </c>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,35 +3426,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>263300</v>
+      </c>
+      <c r="E76" s="3">
         <v>269700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>97700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>99900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>101900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>102500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>102900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-224100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>10</v>
       </c>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-70800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14600</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O81" s="3">
         <v>-5700</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="E83" s="3">
         <v>4000</v>
       </c>
       <c r="F83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G83" s="3">
         <v>3600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>3400</v>
       </c>
       <c r="J83" s="3">
         <v>3400</v>
       </c>
       <c r="K83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L83" s="3">
         <v>3200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>2700</v>
       </c>
       <c r="N83" s="3">
         <v>2700</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-1300</v>
       </c>
       <c r="K91" s="3">
         <v>-1300</v>
       </c>
       <c r="L91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1900</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="E100" s="3">
         <v>174300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>96500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-700</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E102" s="3">
         <v>169900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>94100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3500</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="P102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>PHR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E8" s="3">
         <v>41800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>38500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>35000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>33400</v>
-      </c>
-      <c r="H8" s="3">
-        <v>32800</v>
       </c>
       <c r="I8" s="3">
         <v>32800</v>
       </c>
       <c r="J8" s="3">
+        <v>32800</v>
+      </c>
+      <c r="K8" s="3">
         <v>30800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>28300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26500</v>
-      </c>
-      <c r="M8" s="3">
-        <v>24800</v>
       </c>
       <c r="N8" s="3">
         <v>24800</v>
       </c>
       <c r="O8" s="3">
+        <v>24800</v>
+      </c>
+      <c r="P8" s="3">
         <v>23900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E9" s="3">
         <v>14800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11200</v>
-      </c>
-      <c r="I9" s="3">
-        <v>11300</v>
       </c>
       <c r="J9" s="3">
         <v>11300</v>
       </c>
       <c r="K9" s="3">
+        <v>11300</v>
+      </c>
+      <c r="L9" s="3">
         <v>10900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E10" s="3">
         <v>27000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>24500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>23000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>21800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>21600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>21500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>19500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>16400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>15600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>15900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>15100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +893,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E12" s="3">
         <v>6400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -983,24 +1002,24 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
         <v>1100</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1013,43 +1032,46 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E15" s="3">
         <v>4300</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4000</v>
       </c>
       <c r="F15" s="3">
         <v>4000</v>
       </c>
       <c r="G15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H15" s="3">
         <v>3600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3500</v>
-      </c>
-      <c r="J15" s="3">
-        <v>3400</v>
       </c>
       <c r="K15" s="3">
         <v>3400</v>
       </c>
       <c r="L15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M15" s="3">
         <v>3200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>2700</v>
       </c>
       <c r="O15" s="3">
         <v>2700</v>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E17" s="3">
         <v>50100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>44600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>41300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>38400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>37500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>35100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>35000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>33600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>29800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>27800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>25800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-8300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,114 +1210,121 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-900</v>
       </c>
       <c r="H20" s="3">
         <v>-900</v>
       </c>
       <c r="I20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>10</v>
       </c>
@@ -1298,8 +1337,8 @@
       <c r="L22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1310,72 +1349,78 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
       <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>-2000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
@@ -1384,7 +1429,7 @@
         <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6700</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26" s="3">
         <v>-3200</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-70800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14600</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P27" s="3">
         <v>-5700</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>900</v>
       </c>
       <c r="H32" s="3">
         <v>900</v>
       </c>
       <c r="I32" s="3">
+        <v>900</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-70800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14600</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P33" s="3">
         <v>-5700</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-70800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14600</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P35" s="3">
         <v>-5700</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,38 +2052,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>450700</v>
+      </c>
+      <c r="E41" s="3">
         <v>218800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>254100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>84200</v>
-      </c>
-      <c r="G41" s="3">
-        <v>90300</v>
       </c>
       <c r="H41" s="3">
         <v>90300</v>
       </c>
       <c r="I41" s="3">
+        <v>90300</v>
+      </c>
+      <c r="J41" s="3">
         <v>91400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>10</v>
       </c>
@@ -2011,8 +2097,11 @@
       <c r="P41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,38 +2144,41 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E43" s="3">
         <v>44500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>39900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>33700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>32900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>34300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>30400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>28100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>28800</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,38 +2238,41 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E45" s="3">
         <v>8900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>6900</v>
       </c>
       <c r="I45" s="3">
         <v>6900</v>
       </c>
       <c r="J45" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K45" s="3">
         <v>7700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4600</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>10</v>
       </c>
@@ -2187,38 +2285,41 @@
       <c r="P45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>507200</v>
+      </c>
+      <c r="E46" s="3">
         <v>272300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>302500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>128000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>130400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>131500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>128700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>135800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>39300</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2231,8 +2332,11 @@
       <c r="P46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,38 +2379,41 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E48" s="3">
         <v>29300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>22400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>17800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>10</v>
       </c>
@@ -2319,38 +2426,41 @@
       <c r="P48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E49" s="3">
         <v>21500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>10000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9700</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>10</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,38 +2567,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E52" s="3">
         <v>3600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2800</v>
       </c>
       <c r="J52" s="3">
         <v>2800</v>
       </c>
       <c r="K52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L52" s="3">
         <v>5400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,38 +2661,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>561200</v>
+      </c>
+      <c r="E54" s="3">
         <v>326700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>338100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>160300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>161300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>158800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>155900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>163000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>68100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2583,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,38 +2748,39 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>4400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>10</v>
       </c>
@@ -2663,38 +2793,41 @@
       <c r="P57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E58" s="3">
         <v>4900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>10</v>
       </c>
@@ -2707,38 +2840,41 @@
       <c r="P58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E59" s="3">
         <v>45700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>32800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>28000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>28100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>27000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>23700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>25300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>26500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>10</v>
       </c>
@@ -2751,38 +2887,41 @@
       <c r="P59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E60" s="3">
         <v>55000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>41800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>38100</v>
       </c>
       <c r="G60" s="3">
         <v>38100</v>
       </c>
       <c r="H60" s="3">
+        <v>38100</v>
+      </c>
+      <c r="I60" s="3">
         <v>35400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>32100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>38600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>35900</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>10</v>
       </c>
@@ -2795,38 +2934,41 @@
       <c r="P60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E61" s="3">
         <v>6500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>24400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>23100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>21700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>21500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>21300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>21500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>36000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2839,26 +2981,29 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1600</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
@@ -2866,11 +3011,11 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>5900</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>10</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,38 +3169,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E66" s="3">
         <v>63400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>68400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>62600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>61400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>56900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>53400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>60100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>77800</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>10</v>
       </c>
@@ -3059,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3192,11 +3359,11 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>214400</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,38 +3423,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-322800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-311800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-303700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-297000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-290600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-284500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-280800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-278400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-224100</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>10</v>
       </c>
@@ -3297,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,38 +3611,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>503300</v>
+      </c>
+      <c r="E76" s="3">
         <v>263300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>269700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>97700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>99900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>101900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>102500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>102900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-224100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>10</v>
       </c>
@@ -3473,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-70800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14600</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>10</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P81" s="3">
         <v>-5700</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3825,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E83" s="3">
         <v>4300</v>
-      </c>
-      <c r="E83" s="3">
-        <v>4000</v>
       </c>
       <c r="F83" s="3">
         <v>4000</v>
       </c>
       <c r="G83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H83" s="3">
         <v>3600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>3400</v>
       </c>
       <c r="K83" s="3">
         <v>3400</v>
       </c>
       <c r="L83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M83" s="3">
         <v>3200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>2700</v>
       </c>
       <c r="O83" s="3">
         <v>2700</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E89" s="3">
         <v>4100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1400</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-1300</v>
       </c>
       <c r="L91" s="3">
         <v>-1300</v>
       </c>
       <c r="M91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1900</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>244300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-25400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>174300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>96500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-700</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>231900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-35300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>169900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>94100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3500</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="Q102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>PHR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E8" s="3">
         <v>48300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>41800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>38500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>35000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>33400</v>
-      </c>
-      <c r="I8" s="3">
-        <v>32800</v>
       </c>
       <c r="J8" s="3">
         <v>32800</v>
       </c>
       <c r="K8" s="3">
+        <v>32800</v>
+      </c>
+      <c r="L8" s="3">
         <v>30800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>28300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26500</v>
-      </c>
-      <c r="N8" s="3">
-        <v>24800</v>
       </c>
       <c r="O8" s="3">
         <v>24800</v>
       </c>
       <c r="P8" s="3">
+        <v>24800</v>
+      </c>
+      <c r="Q8" s="3">
         <v>23900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E9" s="3">
         <v>18300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11200</v>
-      </c>
-      <c r="J9" s="3">
-        <v>11300</v>
       </c>
       <c r="K9" s="3">
         <v>11300</v>
       </c>
       <c r="L9" s="3">
+        <v>11300</v>
+      </c>
+      <c r="M9" s="3">
         <v>10900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E10" s="3">
         <v>30000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>27000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>24500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>23000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>21800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>21600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>21500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>16400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>15600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>15900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>15100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E12" s="3">
         <v>8100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1005,24 +1025,24 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3">
         <v>1100</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1035,46 +1055,49 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E15" s="3">
         <v>4900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4300</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4000</v>
       </c>
       <c r="G15" s="3">
         <v>4000</v>
       </c>
       <c r="H15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I15" s="3">
         <v>3600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3500</v>
-      </c>
-      <c r="K15" s="3">
-        <v>3400</v>
       </c>
       <c r="L15" s="3">
         <v>3400</v>
       </c>
       <c r="M15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N15" s="3">
         <v>3200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>2700</v>
       </c>
       <c r="P15" s="3">
         <v>2700</v>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>74800</v>
+      </c>
+      <c r="E17" s="3">
         <v>58900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>50100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>44600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>41300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>38400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>37500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>35100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>35000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>33600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>29800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>27800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>26000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>25800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-10600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-8300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,123 +1244,130 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-900</v>
       </c>
       <c r="I20" s="3">
         <v>-900</v>
       </c>
       <c r="J20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>10</v>
       </c>
@@ -1340,8 +1380,8 @@
       <c r="M22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1352,78 +1392,84 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>-2000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
@@ -1432,7 +1478,7 @@
         <v>100</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6700</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-70800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14600</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>900</v>
       </c>
       <c r="I32" s="3">
         <v>900</v>
       </c>
       <c r="J32" s="3">
+        <v>900</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-70800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14600</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-70800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14600</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,41 +2139,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>439900</v>
+      </c>
+      <c r="E41" s="3">
         <v>450700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>218800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>254100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>84200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>90300</v>
       </c>
       <c r="I41" s="3">
         <v>90300</v>
       </c>
       <c r="J41" s="3">
+        <v>90300</v>
+      </c>
+      <c r="K41" s="3">
         <v>91400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>10</v>
       </c>
@@ -2100,8 +2187,11 @@
       <c r="Q41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,41 +2237,44 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E43" s="3">
         <v>46800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>44500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>39900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>33700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>32900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>34300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>30400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>28100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>28800</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,41 +2337,44 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E45" s="3">
         <v>9800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>6900</v>
       </c>
       <c r="J45" s="3">
         <v>6900</v>
       </c>
       <c r="K45" s="3">
+        <v>6900</v>
+      </c>
+      <c r="L45" s="3">
         <v>7700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4600</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>10</v>
       </c>
@@ -2288,41 +2387,44 @@
       <c r="Q45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>493700</v>
+      </c>
+      <c r="E46" s="3">
         <v>507200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>272300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>302500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>128000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>130400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>131500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>128700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>135800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>39300</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2335,8 +2437,11 @@
       <c r="Q46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,41 +2487,44 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E48" s="3">
         <v>27600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>22400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>19500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>17800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>10</v>
       </c>
@@ -2429,41 +2537,44 @@
       <c r="Q48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E49" s="3">
         <v>22000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>21500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>10200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9700</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>10</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,41 +2687,44 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E52" s="3">
         <v>4400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>2800</v>
       </c>
       <c r="K52" s="3">
         <v>2800</v>
       </c>
       <c r="L52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M52" s="3">
         <v>5400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,41 +2787,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>551200</v>
+      </c>
+      <c r="E54" s="3">
         <v>561200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>326700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>338100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>160300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>161300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>158800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>155900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>163000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>68100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,41 +2879,42 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>10</v>
       </c>
@@ -2796,41 +2927,44 @@
       <c r="Q57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E58" s="3">
         <v>4100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>10</v>
       </c>
@@ -2843,41 +2977,44 @@
       <c r="Q58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E59" s="3">
         <v>46300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>45700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>32800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>28000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>28100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>27000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>23700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>25300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>26500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>10</v>
       </c>
@@ -2890,41 +3027,44 @@
       <c r="Q59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E60" s="3">
         <v>50700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>55000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>41800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>38100</v>
       </c>
       <c r="H60" s="3">
         <v>38100</v>
       </c>
       <c r="I60" s="3">
+        <v>38100</v>
+      </c>
+      <c r="J60" s="3">
         <v>35400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>32100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>38600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>35900</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>10</v>
       </c>
@@ -2937,41 +3077,44 @@
       <c r="Q60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E61" s="3">
         <v>5500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>24400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>23100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>21700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>21500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>21300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>36000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2984,29 +3127,32 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1600</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
@@ -3014,11 +3160,11 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>5900</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>10</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,41 +3327,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E66" s="3">
         <v>57900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>63400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>68400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>62600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>61400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>56900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>53400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>60100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>77800</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>10</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3362,11 +3530,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>214400</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,41 +3597,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-347100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-322800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-311800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-303700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-297000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-290600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-284500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-280800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-278400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-224100</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>10</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,41 +3797,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>486600</v>
+      </c>
+      <c r="E76" s="3">
         <v>503300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>263300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>269700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>97700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>99900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>101900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>102500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>102900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-224100</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>10</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-70800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14600</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E83" s="3">
         <v>4900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>4000</v>
       </c>
       <c r="G83" s="3">
         <v>4000</v>
       </c>
       <c r="H83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I83" s="3">
         <v>3600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>3400</v>
       </c>
       <c r="L83" s="3">
         <v>3400</v>
       </c>
       <c r="M83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N83" s="3">
         <v>3200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>2700</v>
       </c>
       <c r="P83" s="3">
         <v>2700</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1400</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-1300</v>
       </c>
       <c r="M91" s="3">
         <v>-1300</v>
       </c>
       <c r="N91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E100" s="3">
         <v>244300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-25400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>174300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>96500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-700</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E102" s="3">
         <v>231900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-35300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>169900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>94100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>PHR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E8" s="3">
         <v>51000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>48300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>41800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>38500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>35000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>33400</v>
-      </c>
-      <c r="J8" s="3">
-        <v>32800</v>
       </c>
       <c r="K8" s="3">
         <v>32800</v>
       </c>
       <c r="L8" s="3">
+        <v>32800</v>
+      </c>
+      <c r="M8" s="3">
         <v>30800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>28300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>26500</v>
-      </c>
-      <c r="O8" s="3">
-        <v>24800</v>
       </c>
       <c r="P8" s="3">
         <v>24800</v>
       </c>
       <c r="Q8" s="3">
+        <v>24800</v>
+      </c>
+      <c r="R8" s="3">
         <v>23900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E9" s="3">
         <v>19700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>18300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>14000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>11300</v>
       </c>
       <c r="L9" s="3">
         <v>11300</v>
       </c>
       <c r="M9" s="3">
+        <v>11300</v>
+      </c>
+      <c r="N9" s="3">
         <v>10900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E10" s="3">
         <v>31300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>30000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>27000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>24500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>23000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>21800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>21600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>21500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>17400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>16400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>15600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>15900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>15100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E12" s="3">
         <v>11400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,24 +1048,24 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
         <v>1100</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1058,49 +1078,52 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E15" s="3">
         <v>5300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4300</v>
-      </c>
-      <c r="G15" s="3">
-        <v>4000</v>
       </c>
       <c r="H15" s="3">
         <v>4000</v>
       </c>
       <c r="I15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J15" s="3">
         <v>3600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3500</v>
-      </c>
-      <c r="L15" s="3">
-        <v>3400</v>
       </c>
       <c r="M15" s="3">
         <v>3400</v>
       </c>
       <c r="N15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O15" s="3">
         <v>3200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>2700</v>
       </c>
       <c r="Q15" s="3">
         <v>2700</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>91700</v>
+      </c>
+      <c r="E17" s="3">
         <v>74800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>58900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>50100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>44600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>41300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>38400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>37500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>35100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>35000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>33600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>29800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>27800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>26000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>25800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-23800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-10600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,123 +1288,129 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-900</v>
       </c>
       <c r="J20" s="3">
         <v>-900</v>
       </c>
       <c r="K20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-18600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
@@ -1383,8 +1423,8 @@
       <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1395,84 +1435,90 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-24100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-2000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
@@ -1481,7 +1527,7 @@
         <v>100</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-24400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6700</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R26" s="3">
         <v>-3200</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-24400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-70800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14600</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R27" s="3">
         <v>-5700</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,99 +1924,105 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>900</v>
       </c>
       <c r="J32" s="3">
         <v>900</v>
       </c>
       <c r="K32" s="3">
+        <v>900</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-24400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-70800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14600</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R33" s="3">
         <v>-5700</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-24400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-70800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14600</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R35" s="3">
         <v>-5700</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,44 +2226,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400400</v>
+      </c>
+      <c r="E41" s="3">
         <v>439900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>450700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>218800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>254100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>84200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>90300</v>
       </c>
       <c r="J41" s="3">
         <v>90300</v>
       </c>
       <c r="K41" s="3">
+        <v>90300</v>
+      </c>
+      <c r="L41" s="3">
         <v>91400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>10</v>
       </c>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,44 +2330,47 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E43" s="3">
         <v>45900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>46800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>44500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>39900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>33700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>32900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>34300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>30400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>28100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>28800</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,44 +2436,47 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E45" s="3">
         <v>8000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>6900</v>
       </c>
       <c r="K45" s="3">
         <v>6900</v>
       </c>
       <c r="L45" s="3">
+        <v>6900</v>
+      </c>
+      <c r="M45" s="3">
         <v>7700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4600</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>10</v>
       </c>
@@ -2390,44 +2489,47 @@
       <c r="R45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>464300</v>
+      </c>
+      <c r="E46" s="3">
         <v>493700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>507200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>272300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>302500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>128000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>130400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>131500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>128700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>135800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>39300</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,44 +2595,47 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E48" s="3">
         <v>29100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>27600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>22400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>19500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>17800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>10</v>
       </c>
@@ -2540,44 +2648,47 @@
       <c r="R48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E49" s="3">
         <v>23000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>22000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>21500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>10600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9700</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>10</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2699,35 +2819,35 @@
         <v>5400</v>
       </c>
       <c r="E52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F52" s="3">
         <v>4400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>2800</v>
       </c>
       <c r="L52" s="3">
         <v>2800</v>
       </c>
       <c r="M52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N52" s="3">
         <v>5400</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,44 +2913,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>529100</v>
+      </c>
+      <c r="E54" s="3">
         <v>551200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>561200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>326700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>338100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>160300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>161300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>158800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>155900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>163000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>68100</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,44 +3010,45 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E57" s="3">
         <v>5500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7500</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>10</v>
       </c>
@@ -2930,44 +3061,47 @@
       <c r="R57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E58" s="3">
         <v>4500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>10</v>
       </c>
@@ -2980,44 +3114,47 @@
       <c r="R58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E59" s="3">
         <v>47700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>46300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>45700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>32800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>28000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>28100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>27000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>25300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>26500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>10</v>
       </c>
@@ -3030,44 +3167,47 @@
       <c r="R59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E60" s="3">
         <v>57700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>50700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>55000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>41800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>38100</v>
       </c>
       <c r="I60" s="3">
         <v>38100</v>
       </c>
       <c r="J60" s="3">
+        <v>38100</v>
+      </c>
+      <c r="K60" s="3">
         <v>35400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>32100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>38600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>35900</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>10</v>
       </c>
@@ -3080,44 +3220,47 @@
       <c r="R60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E61" s="3">
         <v>5600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>24400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>23100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>21700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>21500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>21500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>36000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3130,32 +3273,35 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1600</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
@@ -3163,11 +3309,11 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>5900</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>10</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,44 +3485,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E66" s="3">
         <v>64700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>57900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>63400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>68400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>62600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>61400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>56900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>53400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>60100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>77800</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>10</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3533,11 +3701,11 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>214400</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,44 +3771,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-383500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-347100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-322800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-311800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-303700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-297000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-290600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-284500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-280800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-278400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-224100</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>10</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,44 +3983,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>457900</v>
+      </c>
+      <c r="E76" s="3">
         <v>486600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>503300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>263300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>269700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>97700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>99900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>101900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>102500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>102900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-224100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>10</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-24400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-70800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14600</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R81" s="3">
         <v>-5700</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E83" s="3">
         <v>5300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>4000</v>
       </c>
       <c r="H83" s="3">
         <v>4000</v>
       </c>
       <c r="I83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J83" s="3">
         <v>3600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>3400</v>
       </c>
       <c r="M83" s="3">
         <v>3400</v>
       </c>
       <c r="N83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O83" s="3">
         <v>3200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>2700</v>
       </c>
       <c r="Q83" s="3">
         <v>2700</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1400</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-1300</v>
       </c>
       <c r="N91" s="3">
         <v>-1300</v>
       </c>
       <c r="O91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1900</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>244300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-25400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>174300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>96500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-700</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-39500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>231900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-35300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>169900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>94100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3500</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>PHR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E8" s="3">
         <v>55900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>51000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>48300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>41800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>38500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>35000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>33400</v>
-      </c>
-      <c r="K8" s="3">
-        <v>32800</v>
       </c>
       <c r="L8" s="3">
         <v>32800</v>
       </c>
       <c r="M8" s="3">
+        <v>32800</v>
+      </c>
+      <c r="N8" s="3">
         <v>30800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>28300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>26500</v>
-      </c>
-      <c r="P8" s="3">
-        <v>24800</v>
       </c>
       <c r="Q8" s="3">
         <v>24800</v>
       </c>
       <c r="R8" s="3">
+        <v>24800</v>
+      </c>
+      <c r="S8" s="3">
         <v>23900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E9" s="3">
         <v>21100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>19700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>18300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>14800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>14000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11200</v>
-      </c>
-      <c r="L9" s="3">
-        <v>11300</v>
       </c>
       <c r="M9" s="3">
         <v>11300</v>
       </c>
       <c r="N9" s="3">
+        <v>11300</v>
+      </c>
+      <c r="O9" s="3">
         <v>10900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E10" s="3">
         <v>34800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>31300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>30000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>27000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>24500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>23000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>21800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>21600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>21500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>19500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>17400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>16400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>15600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>15900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>15100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E12" s="3">
         <v>15300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>11400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1051,24 +1071,24 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
         <v>1100</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1081,52 +1101,55 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E15" s="3">
         <v>5200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>4000</v>
       </c>
       <c r="I15" s="3">
         <v>4000</v>
       </c>
       <c r="J15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K15" s="3">
         <v>3600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3500</v>
-      </c>
-      <c r="M15" s="3">
-        <v>3400</v>
       </c>
       <c r="N15" s="3">
         <v>3400</v>
       </c>
       <c r="O15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P15" s="3">
         <v>3200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>2700</v>
       </c>
       <c r="R15" s="3">
         <v>2700</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>104600</v>
+      </c>
+      <c r="E17" s="3">
         <v>91700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>74800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>58900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>50100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>44600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>41300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>38400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>37500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>35100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>35000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>33600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>29800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>27800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>26000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>25800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-46600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-35800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-23800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-10600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-900</v>
       </c>
       <c r="K20" s="3">
         <v>-900</v>
       </c>
       <c r="L20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-30600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-18600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,26 +1434,26 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>10</v>
       </c>
@@ -1426,8 +1466,8 @@
       <c r="O22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1438,90 +1478,96 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-46900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-36200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-24100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
       </c>
       <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
         <v>-2000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
@@ -1530,7 +1576,7 @@
         <v>100</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-36300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-24400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6700</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S26" s="3">
         <v>-3200</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-36300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-24400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-70800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-14600</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S27" s="3">
         <v>-5700</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>900</v>
       </c>
       <c r="K32" s="3">
         <v>900</v>
       </c>
       <c r="L32" s="3">
+        <v>900</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-36300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-24400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-70800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14600</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S33" s="3">
         <v>-5700</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-36300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-24400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-70800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14600</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S35" s="3">
         <v>-5700</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,47 +2313,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>313800</v>
+      </c>
+      <c r="E41" s="3">
         <v>400400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>439900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>450700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>218800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>254100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>84200</v>
-      </c>
-      <c r="J41" s="3">
-        <v>90300</v>
       </c>
       <c r="K41" s="3">
         <v>90300</v>
       </c>
       <c r="L41" s="3">
+        <v>90300</v>
+      </c>
+      <c r="M41" s="3">
         <v>91400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>100100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5900</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>10</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,47 +2423,50 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E43" s="3">
         <v>51800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>45900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>46800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>44500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>39900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>33700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>32900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>34300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>30400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>28100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>28800</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,47 +2535,50 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E45" s="3">
         <v>12200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>6900</v>
       </c>
       <c r="L45" s="3">
         <v>6900</v>
       </c>
       <c r="M45" s="3">
+        <v>6900</v>
+      </c>
+      <c r="N45" s="3">
         <v>7700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4600</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>10</v>
       </c>
@@ -2492,47 +2591,50 @@
       <c r="S45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>386300</v>
+      </c>
+      <c r="E46" s="3">
         <v>464300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>493700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>507200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>272300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>302500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>128000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>130400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>131500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>128700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>135800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>39300</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,47 +2703,50 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E48" s="3">
         <v>34800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>27600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>22400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>19500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>17800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>10</v>
       </c>
@@ -2651,47 +2759,50 @@
       <c r="S48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E49" s="3">
         <v>24600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>23000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>22000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>21500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>10800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9700</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>10</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,47 +2927,50 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5400</v>
+        <v>7100</v>
       </c>
       <c r="E52" s="3">
         <v>5400</v>
       </c>
       <c r="F52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G52" s="3">
         <v>4400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2500</v>
-      </c>
-      <c r="L52" s="3">
-        <v>2800</v>
       </c>
       <c r="M52" s="3">
         <v>2800</v>
       </c>
       <c r="N52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O52" s="3">
         <v>5400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,47 +3039,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>494500</v>
+      </c>
+      <c r="E54" s="3">
         <v>529100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>551200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>561200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>326700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>338100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>160300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>161300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>158800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>155900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>163000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>68100</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,47 +3141,48 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E57" s="3">
         <v>11600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7500</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>10</v>
       </c>
@@ -3064,47 +3195,50 @@
       <c r="S57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E58" s="3">
         <v>4600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>10</v>
       </c>
@@ -3117,47 +3251,50 @@
       <c r="S58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E59" s="3">
         <v>48800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>47700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>46300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>45700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>32800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>28000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>28100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>27000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>25300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>26500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>10</v>
       </c>
@@ -3170,47 +3307,50 @@
       <c r="S59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>68400</v>
+      </c>
+      <c r="E60" s="3">
         <v>65000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>57700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>50700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>55000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>41800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>38100</v>
       </c>
       <c r="J60" s="3">
         <v>38100</v>
       </c>
       <c r="K60" s="3">
+        <v>38100</v>
+      </c>
+      <c r="L60" s="3">
         <v>35400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>32100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>38600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>35900</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>10</v>
       </c>
@@ -3223,47 +3363,50 @@
       <c r="S60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E61" s="3">
         <v>5100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>24400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>23100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>21700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>21300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>36000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3276,35 +3419,38 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1600</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
@@ -3312,11 +3458,11 @@
         <v>0</v>
       </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>5900</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>10</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,47 +3643,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>77200</v>
+      </c>
+      <c r="E66" s="3">
         <v>71200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>64700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>57900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>63400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>68400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>62600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>61400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>56900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>53400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>60100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>77800</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>10</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3704,11 +3872,11 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>214400</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,47 +3945,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-429900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-383500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-347100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-322800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-311800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-303700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-297000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-290600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-284500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-280800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-278400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-224100</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>10</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,47 +4169,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>417300</v>
+      </c>
+      <c r="E76" s="3">
         <v>457900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>486600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>503300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>263300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>269700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>97700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>99900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>101900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>102500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>102900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-224100</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>10</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-36300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-24400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-70800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14600</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>10</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S81" s="3">
         <v>-5700</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E83" s="3">
         <v>5200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>4000</v>
       </c>
       <c r="I83" s="3">
         <v>4000</v>
       </c>
       <c r="J83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K83" s="3">
         <v>3600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3500</v>
-      </c>
-      <c r="M83" s="3">
-        <v>3400</v>
       </c>
       <c r="N83" s="3">
         <v>3400</v>
       </c>
       <c r="O83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P83" s="3">
         <v>3200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>2700</v>
       </c>
       <c r="R83" s="3">
         <v>2700</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-24500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-900</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1400</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-1300</v>
       </c>
       <c r="O91" s="3">
         <v>-1300</v>
       </c>
       <c r="P91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-700</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-14000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1900</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>244300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-25400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>174300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>96500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>6600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-700</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-86600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-39500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-10800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>231900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-35300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>169900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>94100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3500</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>PHR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E8" s="3">
         <v>58000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>55900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>51000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>48300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>41800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>38500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>35000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33400</v>
-      </c>
-      <c r="L8" s="3">
-        <v>32800</v>
       </c>
       <c r="M8" s="3">
         <v>32800</v>
       </c>
       <c r="N8" s="3">
+        <v>32800</v>
+      </c>
+      <c r="O8" s="3">
         <v>30800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>28300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>26500</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>24800</v>
       </c>
       <c r="R8" s="3">
         <v>24800</v>
       </c>
       <c r="S8" s="3">
+        <v>24800</v>
+      </c>
+      <c r="T8" s="3">
         <v>23900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E9" s="3">
         <v>22400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>21100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>19700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>18300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>14800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>14000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11200</v>
-      </c>
-      <c r="M9" s="3">
-        <v>11300</v>
       </c>
       <c r="N9" s="3">
         <v>11300</v>
       </c>
       <c r="O9" s="3">
+        <v>11300</v>
+      </c>
+      <c r="P9" s="3">
         <v>10900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E10" s="3">
         <v>35600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>34800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>31300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>30000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>27000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>24500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>23000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>21800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>21600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>21500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>19500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>17400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>16400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>15600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>15900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>15100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E12" s="3">
         <v>17500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>15300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1074,24 +1093,24 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3">
         <v>1100</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1104,55 +1123,58 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E15" s="3">
         <v>5800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>4000</v>
       </c>
       <c r="J15" s="3">
         <v>4000</v>
       </c>
       <c r="K15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="L15" s="3">
         <v>3600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3500</v>
-      </c>
-      <c r="N15" s="3">
-        <v>3400</v>
       </c>
       <c r="O15" s="3">
         <v>3400</v>
       </c>
       <c r="P15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Q15" s="3">
         <v>3200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>2700</v>
       </c>
       <c r="S15" s="3">
         <v>2700</v>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>113900</v>
+      </c>
+      <c r="E17" s="3">
         <v>104600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>91700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>74800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>58900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>50100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>44600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>41300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>38400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>37500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>35100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>35000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>33600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>29800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>27800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>26000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>25800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-46600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-35800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-23800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-10600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,150 +1345,157 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
       </c>
       <c r="G20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-900</v>
       </c>
       <c r="L20" s="3">
         <v>-900</v>
       </c>
       <c r="M20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-40700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-30600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-18600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
         <v>300</v>
       </c>
       <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>10</v>
       </c>
@@ -1469,8 +1508,8 @@
       <c r="P22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1481,96 +1520,102 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-46900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-36200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-24100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
       <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
         <v>-2000</v>
-      </c>
-      <c r="M24" s="3">
-        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
@@ -1579,7 +1624,7 @@
         <v>100</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-46500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-36300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-24400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6700</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T26" s="3">
         <v>-3200</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-46500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-36300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-24400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-70800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-14600</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T27" s="3">
         <v>-5700</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
       </c>
       <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>900</v>
       </c>
       <c r="L32" s="3">
         <v>900</v>
       </c>
       <c r="M32" s="3">
+        <v>900</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-46500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-36300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-24400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-70800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-14600</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T33" s="3">
         <v>-5700</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-46500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-36300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-24400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-70800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-14600</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T35" s="3">
         <v>-5700</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,50 +2399,51 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>269200</v>
+      </c>
+      <c r="E41" s="3">
         <v>313800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>439900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>450700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>218800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>254100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>84200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>90300</v>
       </c>
       <c r="L41" s="3">
         <v>90300</v>
       </c>
       <c r="M41" s="3">
+        <v>90300</v>
+      </c>
+      <c r="N41" s="3">
         <v>91400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>100100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5900</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>10</v>
       </c>
@@ -2370,8 +2456,11 @@
       <c r="T41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,50 +2515,53 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>67700</v>
+      </c>
+      <c r="E43" s="3">
         <v>59900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>51800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>45900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>46800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>44500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>39900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>33700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>32900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>34300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>30400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>28100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>28800</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,50 +2633,53 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E45" s="3">
         <v>12700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>6900</v>
       </c>
       <c r="M45" s="3">
         <v>6900</v>
       </c>
       <c r="N45" s="3">
+        <v>6900</v>
+      </c>
+      <c r="O45" s="3">
         <v>7700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4600</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>10</v>
       </c>
@@ -2594,50 +2692,53 @@
       <c r="T45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>349200</v>
+      </c>
+      <c r="E46" s="3">
         <v>386300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>464300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>493700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>507200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>272300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>302500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>128000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>130400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>131500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>128700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>135800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>39300</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2650,8 +2751,11 @@
       <c r="T46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,50 +2810,53 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E48" s="3">
         <v>37000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>34800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>27600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>22400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>19500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>10</v>
       </c>
@@ -2762,50 +2869,53 @@
       <c r="T48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>68900</v>
+      </c>
+      <c r="E49" s="3">
         <v>64000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>24600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>23000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>22000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>21500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9700</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>10</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,50 +3046,53 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E52" s="3">
         <v>7100</v>
-      </c>
-      <c r="E52" s="3">
-        <v>5400</v>
       </c>
       <c r="F52" s="3">
         <v>5400</v>
       </c>
       <c r="G52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H52" s="3">
         <v>4400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2500</v>
-      </c>
-      <c r="M52" s="3">
-        <v>2800</v>
       </c>
       <c r="N52" s="3">
         <v>2800</v>
       </c>
       <c r="O52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P52" s="3">
         <v>5400</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,50 +3164,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>459100</v>
+      </c>
+      <c r="E54" s="3">
         <v>494500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>529100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>551200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>561200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>326700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>338100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>160300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>161300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>158800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>155900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>163000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>68100</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>10</v>
       </c>
@@ -3098,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,50 +3271,51 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E57" s="3">
         <v>5100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7500</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>10</v>
       </c>
@@ -3198,50 +3328,53 @@
       <c r="T57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E58" s="3">
         <v>5800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>10</v>
       </c>
@@ -3254,50 +3387,53 @@
       <c r="T58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E59" s="3">
         <v>57500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>48800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>47700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>46300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>45700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>32800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>28000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>28100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>27000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>25300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>26500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>10</v>
       </c>
@@ -3310,50 +3446,53 @@
       <c r="T59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>70800</v>
+      </c>
+      <c r="E60" s="3">
         <v>68400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>65000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>57700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>50700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>55000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>41800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>38100</v>
       </c>
       <c r="K60" s="3">
         <v>38100</v>
       </c>
       <c r="L60" s="3">
+        <v>38100</v>
+      </c>
+      <c r="M60" s="3">
         <v>35400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>32100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>38600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>35900</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>10</v>
       </c>
@@ -3366,50 +3505,53 @@
       <c r="T60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>24400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>23100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>21500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>36000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3422,38 +3564,41 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1600</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
@@ -3461,11 +3606,11 @@
         <v>0</v>
       </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>5900</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>10</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,50 +3800,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>77900</v>
+      </c>
+      <c r="E66" s="3">
         <v>77200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>71200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>64700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>57900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>63400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>68400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>62600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>61400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>56900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>53400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>60100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>77800</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>10</v>
       </c>
@@ -3702,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3875,11 +4042,11 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>214400</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,50 +4118,53 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-481200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-429900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-383500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-347100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-322800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-311800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-303700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-297000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-290600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-284500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-280800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-278400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-224100</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>10</v>
       </c>
@@ -4004,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,50 +4354,53 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>381200</v>
+      </c>
+      <c r="E76" s="3">
         <v>417300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>457900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>486600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>503300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>263300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>269700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>97700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>99900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>101900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>102500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>102900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-224100</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>10</v>
       </c>
@@ -4228,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-46500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-36300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-24400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-70800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-14600</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>10</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T81" s="3">
         <v>-5700</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E83" s="3">
         <v>5800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>4000</v>
       </c>
       <c r="J83" s="3">
         <v>4000</v>
       </c>
       <c r="K83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="L83" s="3">
         <v>3600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3500</v>
-      </c>
-      <c r="N83" s="3">
-        <v>3400</v>
       </c>
       <c r="O83" s="3">
         <v>3400</v>
       </c>
       <c r="P83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Q83" s="3">
         <v>3200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>2700</v>
       </c>
       <c r="S83" s="3">
         <v>2700</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-38000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-24500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-900</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4846,55 +5066,58 @@
         <v>-1800</v>
       </c>
       <c r="E91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-11600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1400</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-1300</v>
       </c>
       <c r="P91" s="3">
         <v>-1300</v>
       </c>
       <c r="Q91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-700</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-40700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-14000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1900</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>244300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-25400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>174300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>96500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>6600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-700</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-86600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-39500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-10800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>231900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-35300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>169900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>94100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3500</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="U102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>PHR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>67900</v>
+      </c>
+      <c r="E8" s="3">
         <v>63400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>58000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>55900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>51000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>48300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>41800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>38500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>35000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33400</v>
-      </c>
-      <c r="M8" s="3">
-        <v>32800</v>
       </c>
       <c r="N8" s="3">
         <v>32800</v>
       </c>
       <c r="O8" s="3">
+        <v>32800</v>
+      </c>
+      <c r="P8" s="3">
         <v>30800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>28300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>26500</v>
-      </c>
-      <c r="R8" s="3">
-        <v>24800</v>
       </c>
       <c r="S8" s="3">
         <v>24800</v>
       </c>
       <c r="T8" s="3">
+        <v>24800</v>
+      </c>
+      <c r="U8" s="3">
         <v>23900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E9" s="3">
         <v>26500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>22400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>21100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>19700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>18300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>14800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>14000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11200</v>
-      </c>
-      <c r="N9" s="3">
-        <v>11300</v>
       </c>
       <c r="O9" s="3">
         <v>11300</v>
       </c>
       <c r="P9" s="3">
+        <v>11300</v>
+      </c>
+      <c r="Q9" s="3">
         <v>10900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E10" s="3">
         <v>36900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>35600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>34800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>31300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>30000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>27000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>24500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>23000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>21800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>21600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>21500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>19500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>17400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>16400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>15600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>15900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>15100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E12" s="3">
         <v>20600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>17500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>15300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>11400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,53 +1084,56 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1100</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1126,58 +1146,61 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E15" s="3">
         <v>5900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4300</v>
-      </c>
-      <c r="J15" s="3">
-        <v>4000</v>
       </c>
       <c r="K15" s="3">
         <v>4000</v>
       </c>
       <c r="L15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M15" s="3">
         <v>3600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3500</v>
-      </c>
-      <c r="O15" s="3">
-        <v>3400</v>
       </c>
       <c r="P15" s="3">
         <v>3400</v>
       </c>
       <c r="Q15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="R15" s="3">
         <v>3200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3000</v>
-      </c>
-      <c r="S15" s="3">
-        <v>2700</v>
       </c>
       <c r="T15" s="3">
         <v>2700</v>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>114200</v>
+      </c>
+      <c r="E17" s="3">
         <v>113900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>104600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>91700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>74800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>58900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>50100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>44600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>41300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>38400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>37500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>35100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>35000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>33600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>29800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>27800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>26000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>25800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-50500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-46600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-35800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-23800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,159 +1379,166 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
       </c>
       <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>400</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-900</v>
       </c>
       <c r="M20" s="3">
         <v>-900</v>
       </c>
       <c r="N20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-44700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-40700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-30600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-18600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
-      </c>
-      <c r="E22" s="3">
-        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
       </c>
       <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
@@ -1511,8 +1551,8 @@
       <c r="Q22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1523,67 +1563,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-51000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-46900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-36200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-24100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1591,34 +1637,34 @@
         <v>200</v>
       </c>
       <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
       </c>
       <c r="M24" s="3">
+        <v>100</v>
+      </c>
+      <c r="N24" s="3">
         <v>-2000</v>
-      </c>
-      <c r="N24" s="3">
-        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
@@ -1627,7 +1673,7 @@
         <v>100</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-51200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-46500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-36300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-24400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U26" s="3">
         <v>-3200</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-51200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-46500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-36300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-24400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-70800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U27" s="3">
         <v>-5700</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
       </c>
       <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-400</v>
-      </c>
-      <c r="L32" s="3">
-        <v>900</v>
       </c>
       <c r="M32" s="3">
         <v>900</v>
       </c>
       <c r="N32" s="3">
+        <v>900</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-51200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-46500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-36300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-24400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-70800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U33" s="3">
         <v>-5700</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-51200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-46500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-36300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-24400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-70800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U35" s="3">
         <v>-5700</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,53 +2486,54 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>240700</v>
+      </c>
+      <c r="E41" s="3">
         <v>269200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>313800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>439900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>450700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>218800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>254100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>84200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>90300</v>
       </c>
       <c r="M41" s="3">
         <v>90300</v>
       </c>
       <c r="N41" s="3">
+        <v>90300</v>
+      </c>
+      <c r="O41" s="3">
         <v>91400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>100100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5900</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>10</v>
       </c>
@@ -2459,8 +2546,11 @@
       <c r="U41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,53 +2608,56 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>66700</v>
+      </c>
+      <c r="E43" s="3">
         <v>67700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>59900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>51800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>45900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>46800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>44500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>39900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>33700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>32900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>34300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>30400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>28100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>28800</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,53 +2732,56 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E45" s="3">
         <v>12400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>6900</v>
       </c>
       <c r="N45" s="3">
         <v>6900</v>
       </c>
       <c r="O45" s="3">
+        <v>6900</v>
+      </c>
+      <c r="P45" s="3">
         <v>7700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4600</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>10</v>
       </c>
@@ -2695,53 +2794,56 @@
       <c r="U45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>316500</v>
+      </c>
+      <c r="E46" s="3">
         <v>349200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>386300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>464300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>493700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>507200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>272300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>302500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>128000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>130400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>131500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>128700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>135800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>39300</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2754,8 +2856,11 @@
       <c r="U46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,53 +2918,56 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E48" s="3">
         <v>33900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>37000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>34800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>27600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>29300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>22400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13800</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>10</v>
       </c>
@@ -2872,53 +2980,56 @@
       <c r="U48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>73400</v>
+      </c>
+      <c r="E49" s="3">
         <v>68900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>64000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>24600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>23000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>22000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>21500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9700</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>10</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,53 +3166,56 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E52" s="3">
         <v>7200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7100</v>
-      </c>
-      <c r="F52" s="3">
-        <v>5400</v>
       </c>
       <c r="G52" s="3">
         <v>5400</v>
       </c>
       <c r="H52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I52" s="3">
         <v>4400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2500</v>
-      </c>
-      <c r="N52" s="3">
-        <v>2800</v>
       </c>
       <c r="O52" s="3">
         <v>2800</v>
       </c>
       <c r="P52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Q52" s="3">
         <v>5400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>10</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,53 +3290,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>426000</v>
+      </c>
+      <c r="E54" s="3">
         <v>459100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>494500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>529100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>551200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>561200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>326700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>338100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>160300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>161300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>158800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>155900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>163000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>68100</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>10</v>
       </c>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,53 +3402,54 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E57" s="3">
         <v>5900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7500</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>10</v>
       </c>
@@ -3331,53 +3462,56 @@
       <c r="U57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E58" s="3">
         <v>6100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>10</v>
       </c>
@@ -3390,53 +3524,56 @@
       <c r="U58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E59" s="3">
         <v>58800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>57500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>48800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>47700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>46300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>45700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>32800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>28000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>28100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>27000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>23700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>25300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>26500</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>10</v>
       </c>
@@ -3449,53 +3586,56 @@
       <c r="U59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>71900</v>
+      </c>
+      <c r="E60" s="3">
         <v>70800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>68400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>65000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>57700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>50700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>55000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>41800</v>
-      </c>
-      <c r="K60" s="3">
-        <v>38100</v>
       </c>
       <c r="L60" s="3">
         <v>38100</v>
       </c>
       <c r="M60" s="3">
+        <v>38100</v>
+      </c>
+      <c r="N60" s="3">
         <v>35400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>32100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>38600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>35900</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>10</v>
       </c>
@@ -3508,53 +3648,56 @@
       <c r="U60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E61" s="3">
         <v>6000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>24400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>21700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>21500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>36000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3567,41 +3710,44 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1600</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
@@ -3609,11 +3755,11 @@
         <v>0</v>
       </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>5900</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>10</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,53 +3958,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>77500</v>
+      </c>
+      <c r="E66" s="3">
         <v>77900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>77200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>71200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>64700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>57900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>63400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>68400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>62600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>61400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>56900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>53400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>60100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>77800</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>10</v>
       </c>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4045,11 +4213,11 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>214400</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,53 +4292,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-527900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-481200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-429900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-383500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-347100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-322800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-311800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-303700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-297000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-290600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-284500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-280800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-278400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-224100</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>10</v>
       </c>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,53 +4540,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>348500</v>
+      </c>
+      <c r="E76" s="3">
         <v>381200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>417300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>457900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>486600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>503300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>263300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>269700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>97700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>99900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>101900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>102500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>102900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-224100</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>10</v>
       </c>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-51200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-46500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-36300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-24400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-70800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>10</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U81" s="3">
         <v>-5700</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E83" s="3">
         <v>5900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>4000</v>
       </c>
       <c r="K83" s="3">
         <v>4000</v>
       </c>
       <c r="L83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M83" s="3">
         <v>3600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3500</v>
-      </c>
-      <c r="O83" s="3">
-        <v>3400</v>
       </c>
       <c r="P83" s="3">
         <v>3400</v>
       </c>
       <c r="Q83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="R83" s="3">
         <v>3200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>2700</v>
       </c>
       <c r="T83" s="3">
         <v>2700</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-33600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-38000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-24500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-900</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1800</v>
+        <v>-800</v>
       </c>
       <c r="E91" s="3">
         <v>-1800</v>
       </c>
       <c r="F91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G91" s="3">
         <v>-11600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1400</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-1300</v>
       </c>
       <c r="Q91" s="3">
         <v>-1300</v>
       </c>
       <c r="R91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="S91" s="3">
         <v>-1000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-700</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-40700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-14000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1900</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>244300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-25400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>174300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>96500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>6600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-700</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-44600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-86600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-39500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>231900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-35300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>169900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>94100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3500</v>
       </c>
-      <c r="U102" s="3" t="s">
+      <c r="V102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E8" s="3">
         <v>67900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>63400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>58000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>55900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>51000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>48300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>41800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>38500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>35000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33400</v>
-      </c>
-      <c r="N8" s="3">
-        <v>32800</v>
       </c>
       <c r="O8" s="3">
         <v>32800</v>
       </c>
       <c r="P8" s="3">
+        <v>32800</v>
+      </c>
+      <c r="Q8" s="3">
         <v>30800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>28300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>26500</v>
-      </c>
-      <c r="S8" s="3">
-        <v>24800</v>
       </c>
       <c r="T8" s="3">
         <v>24800</v>
       </c>
       <c r="U8" s="3">
+        <v>24800</v>
+      </c>
+      <c r="V8" s="3">
         <v>23900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E9" s="3">
         <v>27400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>26500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>22400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>21100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>19700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>18300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>14800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11200</v>
-      </c>
-      <c r="O9" s="3">
-        <v>11300</v>
       </c>
       <c r="P9" s="3">
         <v>11300</v>
       </c>
       <c r="Q9" s="3">
+        <v>11300</v>
+      </c>
+      <c r="R9" s="3">
         <v>10900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>9200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>45800</v>
+      </c>
+      <c r="E10" s="3">
         <v>40500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>36900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>35600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>34800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>31300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>30000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>27000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>24500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>23000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>21800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>21600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>21500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>19500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>17400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>16400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>15600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>15900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>15100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E12" s="3">
         <v>22500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>20600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>17500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>15300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>11400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>3100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1113,30 +1133,30 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3">
         <v>1100</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1149,61 +1169,64 @@
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E15" s="3">
         <v>5800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4300</v>
-      </c>
-      <c r="K15" s="3">
-        <v>4000</v>
       </c>
       <c r="L15" s="3">
         <v>4000</v>
       </c>
       <c r="M15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N15" s="3">
         <v>3600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3500</v>
-      </c>
-      <c r="P15" s="3">
-        <v>3400</v>
       </c>
       <c r="Q15" s="3">
         <v>3400</v>
       </c>
       <c r="R15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="S15" s="3">
         <v>3200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3000</v>
-      </c>
-      <c r="T15" s="3">
-        <v>2700</v>
       </c>
       <c r="U15" s="3">
         <v>2700</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>112900</v>
+      </c>
+      <c r="E17" s="3">
         <v>114200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>113900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>104600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>91700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>74800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>58900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>50100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>44600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>41300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>38400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>37500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>35100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>35000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>33600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>29800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>27800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>26000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>25800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-46300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-50500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-46600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-35800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-23800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,168 +1413,175 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-100</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
       </c>
       <c r="I20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-900</v>
       </c>
       <c r="N20" s="3">
         <v>-900</v>
       </c>
       <c r="O20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-40400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-44700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-40700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-30600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-18600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
       </c>
       <c r="H22" s="3">
+        <v>300</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>10</v>
       </c>
@@ -1554,8 +1594,8 @@
       <c r="R22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-46500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-51000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-46900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-36200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-24100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1640,34 +1686,34 @@
         <v>200</v>
       </c>
       <c r="F24" s="3">
+        <v>200</v>
+      </c>
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
       </c>
       <c r="N24" s="3">
+        <v>100</v>
+      </c>
+      <c r="O24" s="3">
         <v>-2000</v>
-      </c>
-      <c r="O24" s="3">
-        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
@@ -1676,7 +1722,7 @@
         <v>100</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-46700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-51200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-46500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-36300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-24400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6700</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V26" s="3">
         <v>-3200</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-46700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-51200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-46500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-36300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-24400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-70800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-14600</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V27" s="3">
         <v>-5700</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
       </c>
       <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>900</v>
       </c>
       <c r="N32" s="3">
         <v>900</v>
       </c>
       <c r="O32" s="3">
+        <v>900</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-46700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-51200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-46500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-36300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-24400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-70800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-14600</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V33" s="3">
         <v>-5700</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-46700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-51200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-46500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-36300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-24400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-70800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-14600</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V35" s="3">
         <v>-5700</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,56 +2573,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>209600</v>
+      </c>
+      <c r="E41" s="3">
         <v>240700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>269200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>313800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>439900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>450700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>218800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>254100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>84200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>90300</v>
       </c>
       <c r="N41" s="3">
         <v>90300</v>
       </c>
       <c r="O41" s="3">
+        <v>90300</v>
+      </c>
+      <c r="P41" s="3">
         <v>91400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>100100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5900</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>10</v>
       </c>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,56 +2701,59 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E43" s="3">
         <v>66700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>67700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>59900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>51800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>45900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>46800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>44500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>39900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>33700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>32900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>34300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>30400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>28100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>28800</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,56 +2831,59 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E45" s="3">
         <v>9100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>6900</v>
       </c>
       <c r="O45" s="3">
         <v>6900</v>
       </c>
       <c r="P45" s="3">
+        <v>6900</v>
+      </c>
+      <c r="Q45" s="3">
         <v>7700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4600</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>10</v>
       </c>
@@ -2797,56 +2896,59 @@
       <c r="V45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>286900</v>
+      </c>
+      <c r="E46" s="3">
         <v>316500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>349200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>386300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>464300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>493700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>507200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>272300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>302500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>128000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>130400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>131500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>128700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>135800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>39300</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,56 +3026,59 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E48" s="3">
         <v>29900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>33900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>37000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>34800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>27600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13800</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>10</v>
       </c>
@@ -2983,56 +3091,59 @@
       <c r="V48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E49" s="3">
         <v>73400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>68900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>64000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>24600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>23000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>22000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>21500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9700</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>10</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,56 +3286,59 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E52" s="3">
         <v>6200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>5400</v>
       </c>
       <c r="H52" s="3">
         <v>5400</v>
       </c>
       <c r="I52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J52" s="3">
         <v>4400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2500</v>
-      </c>
-      <c r="O52" s="3">
-        <v>2800</v>
       </c>
       <c r="P52" s="3">
         <v>2800</v>
       </c>
       <c r="Q52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R52" s="3">
         <v>5400</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>10</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,56 +3416,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>397300</v>
+      </c>
+      <c r="E54" s="3">
         <v>426000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>459100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>494500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>529100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>551200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>561200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>326700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>338100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>160300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>161300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>158800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>155900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>163000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>68100</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>10</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,56 +3533,57 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E57" s="3">
         <v>10100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7500</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>10</v>
       </c>
@@ -3465,56 +3596,59 @@
       <c r="V57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E58" s="3">
         <v>5700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>10</v>
       </c>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3536,47 +3673,47 @@
         <v>56100</v>
       </c>
       <c r="E59" s="3">
+        <v>56100</v>
+      </c>
+      <c r="F59" s="3">
         <v>58800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>57500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>48800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>47700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>46300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>45700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>32800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>28000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>28100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>27000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>23700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>25300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>26500</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>10</v>
       </c>
@@ -3589,56 +3726,59 @@
       <c r="V59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>72700</v>
+      </c>
+      <c r="E60" s="3">
         <v>71900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>70800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>68400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>65000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>57700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>50700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>55000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>41800</v>
-      </c>
-      <c r="L60" s="3">
-        <v>38100</v>
       </c>
       <c r="M60" s="3">
         <v>38100</v>
       </c>
       <c r="N60" s="3">
+        <v>38100</v>
+      </c>
+      <c r="O60" s="3">
         <v>35400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>32100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>38600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>35900</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>10</v>
       </c>
@@ -3651,56 +3791,59 @@
       <c r="V60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E61" s="3">
         <v>4900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>24400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>23100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>21300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>21500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>36000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3713,44 +3856,47 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1600</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
@@ -3758,11 +3904,11 @@
         <v>0</v>
       </c>
       <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
         <v>5900</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>10</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,56 +4116,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E66" s="3">
         <v>77500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>77900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>77200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>71200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>64700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>57900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>63400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>68400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>62600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>61400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>56900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>53400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>60100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>77800</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>10</v>
       </c>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4216,11 +4384,11 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>214400</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,56 +4466,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-568100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-527900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-481200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-429900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-383500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-347100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-322800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-311800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-303700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-297000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-290600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-284500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-280800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-278400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-224100</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>10</v>
       </c>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,56 +4726,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>320300</v>
+      </c>
+      <c r="E76" s="3">
         <v>348500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>381200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>417300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>457900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>486600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>503300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>263300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>269700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>97700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>99900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>101900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>102500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>102900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-224100</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>10</v>
       </c>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-46700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-51200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-46500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-36300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-24400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-70800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-14600</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V81" s="3">
         <v>-5700</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E83" s="3">
         <v>5800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>4000</v>
       </c>
       <c r="L83" s="3">
         <v>4000</v>
       </c>
       <c r="M83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N83" s="3">
         <v>3600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3500</v>
-      </c>
-      <c r="P83" s="3">
-        <v>3400</v>
       </c>
       <c r="Q83" s="3">
         <v>3400</v>
       </c>
       <c r="R83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="S83" s="3">
         <v>3200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3000</v>
-      </c>
-      <c r="T83" s="3">
-        <v>2700</v>
       </c>
       <c r="U83" s="3">
         <v>2700</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-19800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-33600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-38000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-24500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-900</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-1800</v>
       </c>
       <c r="F91" s="3">
         <v>-1800</v>
       </c>
       <c r="G91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H91" s="3">
         <v>-11600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1400</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-1300</v>
       </c>
       <c r="R91" s="3">
         <v>-1300</v>
       </c>
       <c r="S91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T91" s="3">
         <v>-1000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-700</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-40700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-14500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1900</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>244300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-25400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>174300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>96500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>6600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-700</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-28500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-44600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-86600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-39500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-10800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>231900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-35300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>169900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-8700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>94100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3500</v>
       </c>
-      <c r="V102" s="3" t="s">
+      <c r="W102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E8" s="3">
         <v>73100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>67900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>63400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>58000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>55900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>51000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>48300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>41800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>38500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>35000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>33400</v>
-      </c>
-      <c r="O8" s="3">
-        <v>32800</v>
       </c>
       <c r="P8" s="3">
         <v>32800</v>
       </c>
       <c r="Q8" s="3">
+        <v>32800</v>
+      </c>
+      <c r="R8" s="3">
         <v>30800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>28300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>26500</v>
-      </c>
-      <c r="T8" s="3">
-        <v>24800</v>
       </c>
       <c r="U8" s="3">
         <v>24800</v>
       </c>
       <c r="V8" s="3">
+        <v>24800</v>
+      </c>
+      <c r="W8" s="3">
         <v>23900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E9" s="3">
         <v>27300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>27400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>26500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>22400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>21100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>19700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>18300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11200</v>
-      </c>
-      <c r="P9" s="3">
-        <v>11300</v>
       </c>
       <c r="Q9" s="3">
         <v>11300</v>
       </c>
       <c r="R9" s="3">
+        <v>11300</v>
+      </c>
+      <c r="S9" s="3">
         <v>10900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>9200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E10" s="3">
         <v>45800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>40500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>36900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>35600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>34800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>31300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>30000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>27000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>24500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>23000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>21800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>21600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>21500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>19500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>17400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>16400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>15600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>15900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>15100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E12" s="3">
         <v>22700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>22500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>20600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>17500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>15300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>11400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>3200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>3100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1136,30 +1156,30 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3">
         <v>1100</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1172,64 +1192,67 @@
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E15" s="3">
         <v>6700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>5300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4300</v>
-      </c>
-      <c r="L15" s="3">
-        <v>4000</v>
       </c>
       <c r="M15" s="3">
         <v>4000</v>
       </c>
       <c r="N15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="O15" s="3">
         <v>3600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3500</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>3400</v>
       </c>
       <c r="R15" s="3">
         <v>3400</v>
       </c>
       <c r="S15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="T15" s="3">
         <v>3200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3000</v>
-      </c>
-      <c r="U15" s="3">
-        <v>2700</v>
       </c>
       <c r="V15" s="3">
         <v>2700</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,73 +1285,77 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E17" s="3">
         <v>112900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>114200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>113900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>104600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>91700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>74800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>58900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>50100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>44600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>41300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>38400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>37500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>35100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>35000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>33600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>29800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>27800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>26000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>25800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,64 +1363,67 @@
         <v>-39800</v>
       </c>
       <c r="E18" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-46300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-50500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-46600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-35800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-23800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,177 +1447,184 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-100</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
       </c>
       <c r="J20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-900</v>
       </c>
       <c r="O20" s="3">
         <v>-900</v>
       </c>
       <c r="P20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-32800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-40400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-44700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-40700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-30600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-18600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-500</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
       </c>
       <c r="I22" s="3">
+        <v>300</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>10</v>
       </c>
@@ -1597,8 +1637,8 @@
       <c r="S22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1609,78 +1649,84 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-40000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-46500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-51000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-46900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-36200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-24100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="E24" s="3">
         <v>200</v>
@@ -1689,34 +1735,34 @@
         <v>200</v>
       </c>
       <c r="G24" s="3">
+        <v>200</v>
+      </c>
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
       </c>
       <c r="O24" s="3">
+        <v>100</v>
+      </c>
+      <c r="P24" s="3">
         <v>-2000</v>
-      </c>
-      <c r="P24" s="3">
-        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>100</v>
@@ -1725,7 +1771,7 @@
         <v>100</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-40200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-46700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-51200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-46500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-36300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-24400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6700</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W26" s="3">
         <v>-3200</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-40200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-46700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-51200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-46500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-36300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-24400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-70800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-14600</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W27" s="3">
         <v>-5700</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
       </c>
       <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>900</v>
       </c>
       <c r="O32" s="3">
         <v>900</v>
       </c>
       <c r="P32" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-40200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-46700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-51200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-46500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-36300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-24400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-70800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-14600</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W33" s="3">
         <v>-5700</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-40200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-46700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-51200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-46500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-36300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-24400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-70800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-14600</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W35" s="3">
         <v>-5700</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,59 +2660,60 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>176700</v>
+      </c>
+      <c r="E41" s="3">
         <v>209600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>240700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>269200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>313800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>439900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>450700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>218800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>254100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>84200</v>
-      </c>
-      <c r="N41" s="3">
-        <v>90300</v>
       </c>
       <c r="O41" s="3">
         <v>90300</v>
       </c>
       <c r="P41" s="3">
+        <v>90300</v>
+      </c>
+      <c r="Q41" s="3">
         <v>91400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>100100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5900</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>10</v>
       </c>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,59 +2794,62 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E43" s="3">
         <v>65100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>66700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>67700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>59900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>51800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>45900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>46800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>44500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>39900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>33700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>32900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>34300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>30400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>28100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>28800</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,59 +2930,62 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E45" s="3">
         <v>12200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7200</v>
-      </c>
-      <c r="O45" s="3">
-        <v>6900</v>
       </c>
       <c r="P45" s="3">
         <v>6900</v>
       </c>
       <c r="Q45" s="3">
+        <v>6900</v>
+      </c>
+      <c r="R45" s="3">
         <v>7700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4600</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>10</v>
       </c>
@@ -2899,59 +2998,62 @@
       <c r="W45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>262400</v>
+      </c>
+      <c r="E46" s="3">
         <v>286900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>316500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>349200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>386300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>464300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>493700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>507200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>272300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>302500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>128000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>130400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>131500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>128700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>135800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>39300</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,59 +3134,62 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E48" s="3">
         <v>27100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>33900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>37000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>34800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>29100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>27600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>22400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13800</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>10</v>
       </c>
@@ -3094,59 +3202,62 @@
       <c r="W48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>80300</v>
+      </c>
+      <c r="E49" s="3">
         <v>77400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>73400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>68900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>64000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>24600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>23000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>22000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>21500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>9700</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>10</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,59 +3406,62 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E52" s="3">
         <v>5900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>5400</v>
       </c>
       <c r="I52" s="3">
         <v>5400</v>
       </c>
       <c r="J52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K52" s="3">
         <v>4400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2500</v>
-      </c>
-      <c r="P52" s="3">
-        <v>2800</v>
       </c>
       <c r="Q52" s="3">
         <v>2800</v>
       </c>
       <c r="R52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="S52" s="3">
         <v>5400</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>10</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,59 +3542,62 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>370100</v>
+      </c>
+      <c r="E54" s="3">
         <v>397300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>426000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>459100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>494500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>529100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>551200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>561200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>326700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>338100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>160300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>161300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>158800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>155900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>163000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>68100</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>10</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,59 +3664,60 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E57" s="3">
         <v>11100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7500</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>10</v>
       </c>
@@ -3599,59 +3730,62 @@
       <c r="W57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E58" s="3">
         <v>5500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2000</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>10</v>
       </c>
@@ -3664,59 +3798,62 @@
       <c r="W58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>56100</v>
+        <v>63000</v>
       </c>
       <c r="E59" s="3">
         <v>56100</v>
       </c>
       <c r="F59" s="3">
+        <v>56100</v>
+      </c>
+      <c r="G59" s="3">
         <v>58800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>57500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>48800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>47700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>46300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>45700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>32800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>28000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>28100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>27000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>23700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>25300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>26500</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>10</v>
       </c>
@@ -3729,59 +3866,62 @@
       <c r="W59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E60" s="3">
         <v>72700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>71900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>70800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>68400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>65000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>57700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>50700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>55000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>41800</v>
-      </c>
-      <c r="M60" s="3">
-        <v>38100</v>
       </c>
       <c r="N60" s="3">
         <v>38100</v>
       </c>
       <c r="O60" s="3">
+        <v>38100</v>
+      </c>
+      <c r="P60" s="3">
         <v>35400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>32100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>38600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>35900</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>10</v>
       </c>
@@ -3794,59 +3934,62 @@
       <c r="W60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E61" s="3">
         <v>3800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>24400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>23100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>21500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>21300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>21500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>36000</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3868,38 +4014,38 @@
         <v>500</v>
       </c>
       <c r="E62" s="3">
+        <v>500</v>
+      </c>
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1600</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
@@ -3907,11 +4053,11 @@
         <v>0</v>
       </c>
       <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>5900</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>10</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,59 +4274,62 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>82200</v>
+      </c>
+      <c r="E66" s="3">
         <v>76900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>77500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>77900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>77200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>71200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>64700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>57900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>63400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>68400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>62600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>61400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>56900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>53400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>60100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>77800</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>10</v>
       </c>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4387,11 +4555,11 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>214400</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,59 +4640,62 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-606100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-568100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-527900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-481200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-429900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-383500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-347100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-322800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-311800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-303700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-297000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-290600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-284500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-280800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-278400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-224100</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>10</v>
       </c>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,59 +4912,62 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>287800</v>
+      </c>
+      <c r="E76" s="3">
         <v>320300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>348500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>381200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>417300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>457900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>486600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>503300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>263300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>269700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>97700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>99900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>101900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>102500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>102900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-224100</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>10</v>
       </c>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-40200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-46700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-51200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-46500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-36300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-24400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-70800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-14600</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>10</v>
       </c>
       <c r="U81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W81" s="3">
         <v>-5700</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E83" s="3">
         <v>6700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>4000</v>
       </c>
       <c r="M83" s="3">
         <v>4000</v>
       </c>
       <c r="N83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="O83" s="3">
         <v>3600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3500</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>3400</v>
       </c>
       <c r="R83" s="3">
         <v>3400</v>
       </c>
       <c r="S83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="T83" s="3">
         <v>3200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3000</v>
-      </c>
-      <c r="U83" s="3">
-        <v>2700</v>
       </c>
       <c r="V83" s="3">
         <v>2700</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-19800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-33600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-38000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-24500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-900</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1400</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-800</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-1300</v>
       </c>
       <c r="S91" s="3">
         <v>-1300</v>
       </c>
       <c r="T91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="U91" s="3">
         <v>-1000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-700</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-40700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-14500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1900</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>244300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-25400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>174300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>96500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>6600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-700</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-31100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-28500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-44600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-86600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-39500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-10800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>231900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-35300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>169900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>94100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3500</v>
       </c>
-      <c r="W102" s="3" t="s">
+      <c r="X102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>83800</v>
+      </c>
+      <c r="E8" s="3">
         <v>76600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>73100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>67900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>63400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>58000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>55900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>51000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>48300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>41800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>38500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>35000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>33400</v>
-      </c>
-      <c r="P8" s="3">
-        <v>32800</v>
       </c>
       <c r="Q8" s="3">
         <v>32800</v>
       </c>
       <c r="R8" s="3">
+        <v>32800</v>
+      </c>
+      <c r="S8" s="3">
         <v>30800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>28300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>26500</v>
-      </c>
-      <c r="U8" s="3">
-        <v>24800</v>
       </c>
       <c r="V8" s="3">
         <v>24800</v>
       </c>
       <c r="W8" s="3">
+        <v>24800</v>
+      </c>
+      <c r="X8" s="3">
         <v>23900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E9" s="3">
         <v>28000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>27300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>27400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>26500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>22400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>21100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>19700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11200</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>11300</v>
       </c>
       <c r="R9" s="3">
         <v>11300</v>
       </c>
       <c r="S9" s="3">
+        <v>11300</v>
+      </c>
+      <c r="T9" s="3">
         <v>10900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>9200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E10" s="3">
         <v>48600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>45800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>40500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>36900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>35600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>34800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>31300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>30000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>27000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>24500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>23000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>21800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>21600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>21500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>19500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>17400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>16400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>15600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>15900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>15100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E12" s="3">
         <v>25400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>22700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>22500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>20600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>17500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>15300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>3900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>3200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>3100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1159,30 +1178,30 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3">
         <v>1100</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1195,67 +1214,70 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E15" s="3">
         <v>6900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>6700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>5200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>5300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4300</v>
-      </c>
-      <c r="M15" s="3">
-        <v>4000</v>
       </c>
       <c r="N15" s="3">
         <v>4000</v>
       </c>
       <c r="O15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="P15" s="3">
         <v>3600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3500</v>
-      </c>
-      <c r="R15" s="3">
-        <v>3400</v>
       </c>
       <c r="S15" s="3">
         <v>3400</v>
       </c>
       <c r="T15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="U15" s="3">
         <v>3200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3000</v>
-      </c>
-      <c r="V15" s="3">
-        <v>2700</v>
       </c>
       <c r="W15" s="3">
         <v>2700</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>121700</v>
+      </c>
+      <c r="E17" s="3">
         <v>116400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>112900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>114200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>113900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>104600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>91700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>74800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>58900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>50100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>44600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>41300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>38400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>37500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>35100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>35000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>33600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>29800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>27800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>26000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>25800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-39800</v>
+        <v>-37900</v>
       </c>
       <c r="E18" s="3">
         <v>-39800</v>
       </c>
       <c r="F18" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-46300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-50500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-46600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-35800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-23800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-100</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
       </c>
       <c r="K20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>400</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-900</v>
       </c>
       <c r="P20" s="3">
         <v>-900</v>
       </c>
       <c r="Q20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-31000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-32800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-40400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-44700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-40700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-30600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-18600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1593,41 +1632,41 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
       </c>
       <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>10</v>
       </c>
@@ -1640,8 +1679,8 @@
       <c r="T22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1652,84 +1691,90 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-38200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-40000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-46500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-51000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-46900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-36200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-24100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>200</v>
       </c>
       <c r="F24" s="3">
         <v>200</v>
@@ -1738,34 +1783,34 @@
         <v>200</v>
       </c>
       <c r="H24" s="3">
+        <v>200</v>
+      </c>
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
       </c>
       <c r="P24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-2000</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>100</v>
@@ -1774,7 +1819,7 @@
         <v>100</v>
       </c>
       <c r="T24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-38000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-40200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-46700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-51200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-46500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-36300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-24400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6700</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="V26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X26" s="3">
         <v>-3200</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-38000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-40200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-46700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-51200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-46500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-36300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-24400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-70800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-14600</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X27" s="3">
         <v>-5700</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
       </c>
       <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-400</v>
-      </c>
-      <c r="O32" s="3">
-        <v>900</v>
       </c>
       <c r="P32" s="3">
         <v>900</v>
       </c>
       <c r="Q32" s="3">
+        <v>900</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-38000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-40200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-46700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-51200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-46500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-36300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-24400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-70800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-14600</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="V33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X33" s="3">
         <v>-5700</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-38000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-40200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-46700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-51200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-46500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-36300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-24400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-70800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-14600</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="V35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X35" s="3">
         <v>-5700</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,62 +2746,63 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>149800</v>
+      </c>
+      <c r="E41" s="3">
         <v>176700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>209600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>240700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>269200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>313800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>439900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>450700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>218800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>254100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>84200</v>
-      </c>
-      <c r="O41" s="3">
-        <v>90300</v>
       </c>
       <c r="P41" s="3">
         <v>90300</v>
       </c>
       <c r="Q41" s="3">
+        <v>90300</v>
+      </c>
+      <c r="R41" s="3">
         <v>91400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>100100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5900</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>10</v>
       </c>
@@ -2729,8 +2815,11 @@
       <c r="X41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,62 +2886,65 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>79500</v>
+      </c>
+      <c r="E43" s="3">
         <v>74000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>65100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>66700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>67700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>59900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>51800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>45900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>46800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>44500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>39900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>33700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>32900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>34300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>30400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>28100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>28800</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,62 +3028,65 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E45" s="3">
         <v>11800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7200</v>
-      </c>
-      <c r="P45" s="3">
-        <v>6900</v>
       </c>
       <c r="Q45" s="3">
         <v>6900</v>
       </c>
       <c r="R45" s="3">
+        <v>6900</v>
+      </c>
+      <c r="S45" s="3">
         <v>7700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4600</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>10</v>
       </c>
@@ -3001,62 +3099,65 @@
       <c r="X45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>240100</v>
+      </c>
+      <c r="E46" s="3">
         <v>262400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>286900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>316500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>349200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>386300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>464300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>493700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>507200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>272300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>302500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>128000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>130400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>131500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>128700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>135800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>39300</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>10</v>
       </c>
@@ -3069,8 +3170,11 @@
       <c r="X46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,62 +3241,65 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E48" s="3">
         <v>22200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>27100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>33900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>37000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>34800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>29300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>22400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13800</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>10</v>
       </c>
@@ -3205,62 +3312,65 @@
       <c r="X48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>82900</v>
+      </c>
+      <c r="E49" s="3">
         <v>80300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>77400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>73400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>68900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>64000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>24600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>23000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>22000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>21500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>9900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>9700</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>10</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,62 +3525,65 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E52" s="3">
         <v>5100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>5400</v>
       </c>
       <c r="J52" s="3">
         <v>5400</v>
       </c>
       <c r="K52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="L52" s="3">
         <v>4400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2500</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>2800</v>
       </c>
       <c r="R52" s="3">
         <v>2800</v>
       </c>
       <c r="S52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="T52" s="3">
         <v>5400</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>10</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,62 +3667,65 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>353900</v>
+      </c>
+      <c r="E54" s="3">
         <v>370100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>397300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>426000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>459100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>494500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>529100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>551200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>561200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>326700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>338100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>160300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>161300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>158800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>155900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>163000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>68100</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>10</v>
       </c>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,62 +3794,63 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E57" s="3">
         <v>10800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7500</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>10</v>
       </c>
@@ -3733,62 +3863,65 @@
       <c r="X57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2000</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>10</v>
       </c>
@@ -3801,62 +3934,65 @@
       <c r="X58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>68400</v>
+      </c>
+      <c r="E59" s="3">
         <v>63000</v>
-      </c>
-      <c r="E59" s="3">
-        <v>56100</v>
       </c>
       <c r="F59" s="3">
         <v>56100</v>
       </c>
       <c r="G59" s="3">
+        <v>56100</v>
+      </c>
+      <c r="H59" s="3">
         <v>58800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>57500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>48800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>47700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>46300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>45700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>32800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>28000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>28100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>27000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>23700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>25300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>26500</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>10</v>
       </c>
@@ -3869,62 +4005,65 @@
       <c r="X59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E60" s="3">
         <v>79000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>72700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>71900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>70800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>68400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>65000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>57700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>50700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>55000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>41800</v>
-      </c>
-      <c r="N60" s="3">
-        <v>38100</v>
       </c>
       <c r="O60" s="3">
         <v>38100</v>
       </c>
       <c r="P60" s="3">
+        <v>38100</v>
+      </c>
+      <c r="Q60" s="3">
         <v>35400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>32100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>38600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>35900</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>10</v>
       </c>
@@ -3937,62 +4076,65 @@
       <c r="X60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E61" s="3">
         <v>2700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>24400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>23100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>21700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>21500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>21300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>21500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>36000</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4005,50 +4147,53 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E62" s="3">
         <v>500</v>
       </c>
       <c r="F62" s="3">
+        <v>500</v>
+      </c>
+      <c r="G62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1600</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
@@ -4056,11 +4201,11 @@
         <v>0</v>
       </c>
       <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
         <v>5900</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>10</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,62 +4431,65 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>90200</v>
+      </c>
+      <c r="E66" s="3">
         <v>82200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>76900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>77500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>77900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>77200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>71200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>64700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>57900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>63400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>68400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>62600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>61400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>56900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>53400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>60100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>77800</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>10</v>
       </c>
@@ -4345,8 +4502,11 @@
       <c r="X66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4558,11 +4725,11 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>214400</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,62 +4813,65 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-643600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-606100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-568100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-527900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-481200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-429900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-383500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-347100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-322800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-311800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-303700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-297000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-290600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-284500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-280800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-278400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-224100</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>10</v>
       </c>
@@ -4711,8 +4884,11 @@
       <c r="X72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,62 +5097,65 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>263600</v>
+      </c>
+      <c r="E76" s="3">
         <v>287800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>320300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>348500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>381200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>417300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>457900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>486600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>503300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>263300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>269700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>97700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>99900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>101900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>102500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>102900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-224100</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>10</v>
       </c>
@@ -4983,8 +5168,11 @@
       <c r="X76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-38000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-40200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-46700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-51200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-46500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-36300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-24400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-70800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-14600</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>10</v>
       </c>
       <c r="V81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X81" s="3">
         <v>-5700</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E83" s="3">
         <v>6900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4300</v>
-      </c>
-      <c r="M83" s="3">
-        <v>4000</v>
       </c>
       <c r="N83" s="3">
         <v>4000</v>
       </c>
       <c r="O83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="P83" s="3">
         <v>3600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3500</v>
-      </c>
-      <c r="R83" s="3">
-        <v>3400</v>
       </c>
       <c r="S83" s="3">
         <v>3400</v>
       </c>
       <c r="T83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="U83" s="3">
         <v>3200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3000</v>
-      </c>
-      <c r="V83" s="3">
-        <v>2700</v>
       </c>
       <c r="W83" s="3">
         <v>2700</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-15900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-20700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-19800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-33600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-38000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-24500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-3800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-900</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1400</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-1300</v>
       </c>
       <c r="T91" s="3">
         <v>-1300</v>
       </c>
       <c r="U91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="V91" s="3">
         <v>-1000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-700</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-40700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-14500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1900</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-10400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>244300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-25400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>174300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>96500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>5100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>6600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-700</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-32900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-31100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-28500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-44600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-86600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-39500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-10800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>231900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-35300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>169900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-8700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>94100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3500</v>
       </c>
-      <c r="X102" s="3" t="s">
+      <c r="Y102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHR_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43220</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>85800</v>
+      </c>
+      <c r="E8" s="3">
         <v>83800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>76600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>73100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>67900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>63400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>58000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>55900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>51000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>48300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>41800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>38500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>35000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>33400</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>32800</v>
       </c>
       <c r="R8" s="3">
         <v>32800</v>
       </c>
       <c r="S8" s="3">
+        <v>32800</v>
+      </c>
+      <c r="T8" s="3">
         <v>30800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>28300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>26500</v>
-      </c>
-      <c r="V8" s="3">
-        <v>24800</v>
       </c>
       <c r="W8" s="3">
         <v>24800</v>
       </c>
       <c r="X8" s="3">
+        <v>24800</v>
+      </c>
+      <c r="Y8" s="3">
         <v>23900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E9" s="3">
         <v>31000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>28000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>27300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>27400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>26500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>22400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>21100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>18300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11200</v>
-      </c>
-      <c r="R9" s="3">
-        <v>11300</v>
       </c>
       <c r="S9" s="3">
         <v>11300</v>
       </c>
       <c r="T9" s="3">
+        <v>11300</v>
+      </c>
+      <c r="U9" s="3">
         <v>10900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>10100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>9200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E10" s="3">
         <v>52800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>48600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>45800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>40500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>36900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>35600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>34800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>31300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>30000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>27000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>24500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>23000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>21800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>21600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>21500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>19500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>17400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>16400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>15600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>15900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>15100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E12" s="3">
         <v>26500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>25400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>22700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>22500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>20600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>17500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>15300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>4200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>3900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>3200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>3100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1181,30 +1201,30 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="3">
         <v>1100</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1217,70 +1237,73 @@
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E15" s="3">
         <v>7000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>6900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>6700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>5800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>5200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4300</v>
-      </c>
-      <c r="N15" s="3">
-        <v>4000</v>
       </c>
       <c r="O15" s="3">
         <v>4000</v>
       </c>
       <c r="P15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>3600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3500</v>
-      </c>
-      <c r="S15" s="3">
-        <v>3400</v>
       </c>
       <c r="T15" s="3">
         <v>3400</v>
       </c>
       <c r="U15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="V15" s="3">
         <v>3200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3000</v>
-      </c>
-      <c r="W15" s="3">
-        <v>2700</v>
       </c>
       <c r="X15" s="3">
         <v>2700</v>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>122800</v>
+      </c>
+      <c r="E17" s="3">
         <v>121700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>116400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>112900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>114200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>113900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>104600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>91700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>74800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>58900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>50100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>44600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>41300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>38400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>37500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>35100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>35000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>33600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>29800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>27800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>26000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>25800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-37900</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-39800</v>
       </c>
       <c r="F18" s="3">
         <v>-39800</v>
       </c>
       <c r="G18" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="H18" s="3">
         <v>-46300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-50500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-46600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-35800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-23800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-5300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,195 +1514,202 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-100</v>
       </c>
       <c r="K20" s="3">
         <v>-100</v>
       </c>
       <c r="L20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>400</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-900</v>
       </c>
       <c r="Q20" s="3">
         <v>-900</v>
       </c>
       <c r="R20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-29900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-31000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-32800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-40400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-44700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-40700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-30600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-18600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-500</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
         <v>300</v>
       </c>
       <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
       </c>
       <c r="K22" s="3">
+        <v>300</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>10</v>
       </c>
@@ -1682,8 +1722,8 @@
       <c r="U22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1694,90 +1734,96 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-37200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-38200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-40000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-46500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-51000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-46900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-36200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-24100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>200</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
@@ -1786,34 +1832,34 @@
         <v>200</v>
       </c>
       <c r="I24" s="3">
+        <v>200</v>
+      </c>
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
-      </c>
-      <c r="O24" s="3">
-        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
       </c>
       <c r="Q24" s="3">
+        <v>100</v>
+      </c>
+      <c r="R24" s="3">
         <v>-2000</v>
-      </c>
-      <c r="R24" s="3">
-        <v>100</v>
       </c>
       <c r="S24" s="3">
         <v>100</v>
@@ -1822,7 +1868,7 @@
         <v>100</v>
       </c>
       <c r="U24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-37500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-38000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-40200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-46700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-51200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-46500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-36300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-24400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6700</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-37500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-38000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-40200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-46700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-51200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-46500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-36300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-24400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-70800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-14600</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>100</v>
       </c>
       <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-400</v>
-      </c>
-      <c r="P32" s="3">
-        <v>900</v>
       </c>
       <c r="Q32" s="3">
         <v>900</v>
       </c>
       <c r="R32" s="3">
+        <v>900</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-37500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-38000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-40200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-46700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-51200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-46500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-36300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-24400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-70800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-14600</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-37500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-38000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-40200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-46700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-51200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-46500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-36300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-24400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-70800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-14600</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="W35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43220</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,65 +2833,66 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>127700</v>
+      </c>
+      <c r="E41" s="3">
         <v>149800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>176700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>209600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>240700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>269200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>313800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>439900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>450700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>218800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>254100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>84200</v>
-      </c>
-      <c r="P41" s="3">
-        <v>90300</v>
       </c>
       <c r="Q41" s="3">
         <v>90300</v>
       </c>
       <c r="R41" s="3">
+        <v>90300</v>
+      </c>
+      <c r="S41" s="3">
         <v>91400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>100100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5900</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>10</v>
       </c>
@@ -2818,8 +2905,11 @@
       <c r="Y41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,65 +2979,68 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E43" s="3">
         <v>79500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>74000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>65100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>66700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>67700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>59900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>51800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>45900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>46800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>44500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>39900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>33700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>32900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>34300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>30400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>28100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>28800</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,65 +3127,68 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E45" s="3">
         <v>10900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7200</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>6900</v>
       </c>
       <c r="R45" s="3">
         <v>6900</v>
       </c>
       <c r="S45" s="3">
+        <v>6900</v>
+      </c>
+      <c r="T45" s="3">
         <v>7700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4600</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>10</v>
       </c>
@@ -3102,65 +3201,68 @@
       <c r="Y45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>219200</v>
+      </c>
+      <c r="E46" s="3">
         <v>240100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>262400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>286900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>316500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>349200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>386300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>464300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>493700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>507200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>272300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>302500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>128000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>130400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>131500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>128700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>135800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>39300</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>10</v>
       </c>
@@ -3173,8 +3275,11 @@
       <c r="Y46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,65 +3349,68 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E48" s="3">
         <v>26600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>22200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>27100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>33900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>37000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>34800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>27600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>29300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>22400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>14600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13800</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>10</v>
       </c>
@@ -3315,65 +3423,68 @@
       <c r="Y48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>94800</v>
+      </c>
+      <c r="E49" s="3">
         <v>82900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>80300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>77400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>73400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>68900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>64000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>24600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>23000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>22000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>21500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>10000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>9900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>9700</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>10</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,65 +3645,68 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E52" s="3">
         <v>4200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>5400</v>
       </c>
       <c r="K52" s="3">
         <v>5400</v>
       </c>
       <c r="L52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="M52" s="3">
         <v>4400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2500</v>
-      </c>
-      <c r="R52" s="3">
-        <v>2800</v>
       </c>
       <c r="S52" s="3">
         <v>2800</v>
       </c>
       <c r="T52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="U52" s="3">
         <v>5400</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>10</v>
       </c>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,65 +3793,68 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>340400</v>
+      </c>
+      <c r="E54" s="3">
         <v>353900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>370100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>397300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>426000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>459100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>494500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>529100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>551200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>561200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>326700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>338100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>160300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>161300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>158800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>155900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>163000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>68100</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>10</v>
       </c>
@@ -3741,8 +3867,11 @@
       <c r="Y54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,65 +3925,66 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E57" s="3">
         <v>7600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7500</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>10</v>
       </c>
@@ -3866,65 +3997,68 @@
       <c r="Y57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E58" s="3">
         <v>7000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2000</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>10</v>
       </c>
@@ -3937,65 +4071,68 @@
       <c r="Y58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E59" s="3">
         <v>68400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>63000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>56100</v>
       </c>
       <c r="G59" s="3">
         <v>56100</v>
       </c>
       <c r="H59" s="3">
+        <v>56100</v>
+      </c>
+      <c r="I59" s="3">
         <v>58800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>57500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>48800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>47700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>46300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>45700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>32800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>28000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>28100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>27000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>23700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>25300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>26500</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>10</v>
       </c>
@@ -4008,65 +4145,68 @@
       <c r="Y59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>84900</v>
+      </c>
+      <c r="E60" s="3">
         <v>83000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>79000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>72700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>71900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>70800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>68400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>65000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>57700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>50700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>55000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>41800</v>
-      </c>
-      <c r="O60" s="3">
-        <v>38100</v>
       </c>
       <c r="P60" s="3">
         <v>38100</v>
       </c>
       <c r="Q60" s="3">
+        <v>38100</v>
+      </c>
+      <c r="R60" s="3">
         <v>35400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>32100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>38600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>35900</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>10</v>
       </c>
@@ -4079,65 +4219,68 @@
       <c r="Y60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E61" s="3">
         <v>6700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>24400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>23100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>21700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>21500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>21300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>21500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>36000</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4150,53 +4293,56 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
         <v>600</v>
-      </c>
-      <c r="E62" s="3">
-        <v>500</v>
       </c>
       <c r="F62" s="3">
         <v>500</v>
       </c>
       <c r="G62" s="3">
+        <v>500</v>
+      </c>
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1600</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
@@ -4204,11 +4350,11 @@
         <v>0</v>
       </c>
       <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
         <v>5900</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>10</v>
       </c>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,65 +4589,68 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>93400</v>
+      </c>
+      <c r="E66" s="3">
         <v>90200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>82200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>76900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>77500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>77900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>77200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>71200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>64700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>57900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>63400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>68400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>62600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>61400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>56900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>53400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>60100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>77800</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>10</v>
       </c>
@@ -4505,8 +4663,11 @@
       <c r="Y66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4728,11 +4896,11 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>214400</v>
       </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
       <c r="V70" s="3">
         <v>0</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,65 +4987,68 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-680400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-643600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-606100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-568100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-527900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-481200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-429900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-383500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-347100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-322800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-311800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-303700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-297000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-290600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-284500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-280800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-278400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-224100</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>10</v>
       </c>
@@ -4887,8 +5061,11 @@
       <c r="Y72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,65 +5283,68 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E76" s="3">
         <v>263600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>287800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>320300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>348500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>381200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>417300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>457900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>486600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>503300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>263300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>269700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>97700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>99900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>101900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>102500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>102900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-224100</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>10</v>
       </c>
@@ -5171,8 +5357,11 @@
       <c r="Y76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43220</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-37500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-38000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-40200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-46700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-51200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-46500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-36300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-24400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-70800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-14600</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>10</v>
       </c>
       <c r="W81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E83" s="3">
         <v>7000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4300</v>
-      </c>
-      <c r="N83" s="3">
-        <v>4000</v>
       </c>
       <c r="O83" s="3">
         <v>4000</v>
       </c>
       <c r="P83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>3600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3500</v>
-      </c>
-      <c r="S83" s="3">
-        <v>3400</v>
       </c>
       <c r="T83" s="3">
         <v>3400</v>
       </c>
       <c r="U83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="V83" s="3">
         <v>3200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3000</v>
-      </c>
-      <c r="W83" s="3">
-        <v>2700</v>
       </c>
       <c r="X83" s="3">
         <v>2700</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-15900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-20700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-19800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-33600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-38000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-24500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-900</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1400</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-1300</v>
       </c>
       <c r="U91" s="3">
         <v>-1300</v>
       </c>
       <c r="V91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="W91" s="3">
         <v>-1000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-700</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-40700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-14000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-10400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>244300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-25400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>174300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>96500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>5100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>6600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-700</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-26900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-32900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-31100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-28500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-44600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-86600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-39500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>231900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-35300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>169900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-8700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>94100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y102" s="3" t="s">
+      <c r="Z102" s="3" t="s">
         <v>10</v>
       </c>
     </row>
